--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -20,6 +20,65 @@
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+do we have to include this since they are already done and are not part of the current time line</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+prototype design and playing around with technlogies, installing and testing.
+This must also include client meetings, which should be as frequent as possible.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -138,7 +197,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3"/>
@@ -181,6 +240,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -505,94 +577,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41840</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41850</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41858</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,94 +967,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41840</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41850</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41858</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1206,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1286,94 +1357,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41840</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41850</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41858</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1488,7 +1559,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROJECT START</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1540,7 +1611,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1680,94 +1751,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41840</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41850</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41858</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,7 +1862,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1882,7 +1953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CLIENT MEETING 01</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1943,7 +2014,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2071,94 +2142,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41837</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41840</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41843</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41850</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41853</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41855</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41856</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41857</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41858</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41859</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41860</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,16 +2274,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -2273,7 +2344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REQUIREMENTS INTEGRATION</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2364,7 +2435,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -2513,7 +2584,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2565,7 +2636,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FIRST DEMO SESSION</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2665,7 +2736,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2793,22 +2864,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -2857,7 +2928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROJECT TIMELINE COMPILATION</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2960,7 +3031,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3097,43 +3168,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3220,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REQUIREMENTS RE-DO</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3398,37 +3469,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,7 +3515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SYSTEM PROTOTYPING + DB DESIGN</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3670,7 +3741,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -3722,7 +3793,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>May 2014</c:v>
+                  <c:v>Jul 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3801,16 +3872,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -3847,7 +3918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jun 2014</c:v>
+                  <c:v>Aug 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3926,16 +3997,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.5</c:v>
@@ -3972,7 +4043,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jun 2014</c:v>
+                  <c:v>Aug 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4084,7 +4155,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>#N/A</c:v>
@@ -4096,7 +4167,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4127,7 +4198,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>May 2014</c:v>
+                  <c:v>Jul 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4177,7 +4248,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4318,6 +4388,1086 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>13</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{CC25D931-4DB8-4169-98A5-9512FE026D4E}</c15:txfldGUID>
+                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>13</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>14</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{956A7126-CC03-438E-AC54-94E74B9315C0}</c15:txfldGUID>
+                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>14</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>15</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{871295AE-91EA-4E1A-A9D2-A2FCBC17CFDA}</c15:txfldGUID>
+                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>15</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>16</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{89D88C4C-908C-443B-8A41-8AEC8CEFFF07}</c15:txfldGUID>
+                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>16</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>17</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A15B6A2A-CAC8-4922-9CFC-F2C4E279F833}</c15:txfldGUID>
+                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>17</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>18</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{DEC050BE-766E-4EE9-9D4A-1E49A70DAA18}</c15:txfldGUID>
+                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>19</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{8279FF44-32B1-4A41-A343-35EB5CE87764}</c15:txfldGUID>
+                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>20</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{34299831-0FC0-4834-BEF8-87EC5A5E9C87}</c15:txfldGUID>
+                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$M$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>21</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D9A6652E-A4D4-498F-BD42-E0CD02246DBF}</c15:txfldGUID>
+                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$N$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>22</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E421F6B2-50C4-449E-A65E-CFF13827C952}</c15:txfldGUID>
+                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$O$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>23</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B0AC4367-BDB7-44B5-A5B1-976EEDBE266A}</c15:txfldGUID>
+                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>23</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$P$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>24</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{65D6FE41-BB05-4BE8-B151-20CB0DFD4751}</c15:txfldGUID>
+                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>24</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Q$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>25</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E0722E37-12AD-4ECC-8DA3-73D093D6A63B}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>25</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$R$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>26</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A61B7500-BD66-465A-BC0D-45705E11EC90}</c15:txfldGUID>
+                      <c15:f>calcs!$R$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>26</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$S$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>27</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E1F540DA-1656-44D2-B5F8-DBFF2906F77A}</c15:txfldGUID>
+                      <c15:f>calcs!$S$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$T$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>28</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{33331D2A-81FF-4149-91D6-AC6F91F1F589}</c15:txfldGUID>
+                      <c15:f>calcs!$T$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$U$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>29</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{3A6D4820-22C4-42E9-8FEE-581C2EE3BA0F}</c15:txfldGUID>
+                      <c15:f>calcs!$U$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>29</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$V$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>30</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{DFD5E9A7-8469-403F-A5EB-0523CAE0DC0F}</c15:txfldGUID>
+                      <c15:f>calcs!$V$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>30</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$W$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>31</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{3E7D8736-FD09-42F7-BEFF-B9B1A13FE70B}</c15:txfldGUID>
+                      <c15:f>calcs!$W$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>31</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$X$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>01</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5BCBC053-746F-410C-84FE-57BEA403DEA2}</c15:txfldGUID>
+                      <c15:f>calcs!$X$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>01</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Y$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>02</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{C3394E7F-92C1-413C-9D88-EB66D82367DA}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>02</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Z$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>03</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D4A92C65-EEED-4AB8-8551-CCFF7AA77FF0}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>03</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$AA$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>04</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{95087F39-016D-4714-970F-78151BD2CC09}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>04</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$AB$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>05</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B737F809-2D14-429B-A5F6-B086F6588D49}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>05</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$AC$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>06</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{4B5A96D4-A8D5-4D74-9330-7904A72C6E31}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>06</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$AD$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>07</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{54F09BF9-C0C7-4FA0-82DA-E6506476263F}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>07</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$AE$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>08</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{82E9A5AE-BACC-4943-AA93-6A604D11837B}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>08</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$AF$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>09</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4335,8 +5485,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7F5A54C0-0A66-4D57-A1CD-E63502DA8781}</c15:txfldGUID>
-                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:txfldGUID>{9AC8B913-730F-4091-9FFF-363586506FE0}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4350,11 +5500,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$72</c:f>
+                  <c:f>calcs!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4375,8 +5525,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{28753BB5-C20E-4646-97BF-1163689C2435}</c15:txfldGUID>
-                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:txfldGUID>{B503D7D1-700C-4F2F-A969-3A7EDD1D4626}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4390,11 +5540,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$72</c:f>
+                  <c:f>calcs!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4415,1092 +5565,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C0B2B444-A880-45D9-9B63-B7ACA79E4A68}</c15:txfldGUID>
-                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:txfldGUID>{6044B027-761E-4990-846D-0ECFFED9CC79}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>11</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$H$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>12</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{951FF91D-B877-4CE0-86C6-7B61B83AB258}</c15:txfldGUID>
-                      <c15:f>calcs!$H$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>12</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$I$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>13</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5AC4D0AF-DC71-451A-B7C3-CCB9437388EF}</c15:txfldGUID>
-                      <c15:f>calcs!$I$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>13</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$J$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>14</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{62780C5A-3438-4908-B19B-AB5C08DE4143}</c15:txfldGUID>
-                      <c15:f>calcs!$J$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>14</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$K$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>15</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E02A2307-CB44-4A35-96E5-AA087327E012}</c15:txfldGUID>
-                      <c15:f>calcs!$K$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>15</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$L$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>16</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A3388F89-1551-4113-A82E-86171FAE2607}</c15:txfldGUID>
-                      <c15:f>calcs!$L$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>16</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$M$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>17</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5208C6AF-8BE2-47E1-8E01-8428037B5997}</c15:txfldGUID>
-                      <c15:f>calcs!$M$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>17</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$N$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>18</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1D515226-E6AC-4B24-A020-3EAB6CF46DC9}</c15:txfldGUID>
-                      <c15:f>calcs!$N$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$O$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>19</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BFB31A68-7A78-40DB-AF72-518D7FD8EB70}</c15:txfldGUID>
-                      <c15:f>calcs!$O$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$P$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>20</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ADE6A822-6266-4F8D-960B-88761E71BBE5}</c15:txfldGUID>
-                      <c15:f>calcs!$P$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Q$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>21</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1B479B29-C90B-458A-927F-F82F98F14E97}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$R$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>22</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{63178DA0-97D6-4521-BFC0-48FCA7B07F13}</c15:txfldGUID>
-                      <c15:f>calcs!$R$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$S$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>23</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{401B4F43-A2FF-4140-B789-512A337B49F1}</c15:txfldGUID>
-                      <c15:f>calcs!$S$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>23</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$T$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>24</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{427C309A-0786-4CC5-BD3C-DE328032576D}</c15:txfldGUID>
-                      <c15:f>calcs!$T$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>24</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$U$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>25</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6278F7D7-82EB-4249-AEAC-2FE40560C03B}</c15:txfldGUID>
-                      <c15:f>calcs!$U$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>25</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$V$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>26</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CFADAC97-7C71-4BDB-BFF6-2CFEA76AEE69}</c15:txfldGUID>
-                      <c15:f>calcs!$V$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>26</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$W$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>27</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C513E38-C794-4132-90F1-8175A9A60814}</c15:txfldGUID>
-                      <c15:f>calcs!$W$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$X$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>28</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{472A37FD-8660-48BB-8C88-6308C0166871}</c15:txfldGUID>
-                      <c15:f>calcs!$X$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Y$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>29</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F3F70EF8-0FA9-4DDD-9BB7-443F7838B629}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>29</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Z$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>30</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B622FC4-B8D1-45F7-BF57-AEE86B9B2027}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>30</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>31</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B6C6EA6F-B36D-4754-B9A8-15754A61F780}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>31</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>01</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7A44940D-DB96-4611-9DD0-D8A9C96D8BDC}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>01</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>02</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DA1FCD2E-FF51-455D-9022-7F6E1E1A53F7}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>02</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>03</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{474E942D-2CC6-4BAB-9E77-F1D935C79644}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>03</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>04</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{04A83664-C597-486F-A3E1-2FB660B9D7DE}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>04</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>05</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5D01A2CC-B985-4D16-9077-0108ABCCF3C2}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>05</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>06</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1690C474-6E40-49B7-B46C-682E940801B5}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>06</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>07</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{32BD401C-15C7-4CFB-9B9B-D4AC04F0DC1C}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>07</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5665,6 +5735,206 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>SUN</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5D0E12C4-9723-4A7A-AFC2-472DCA79F52D}</c15:txfldGUID>
+                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SUN</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>MON</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E2055039-16CE-4A32-8B1F-48D37E977C90}</c15:txfldGUID>
+                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>MON</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>TUE</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E77966A7-15BD-40AB-9985-93CC99517038}</c15:txfldGUID>
+                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>TUE</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>WED</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{BE804847-B375-43DE-9933-E3B2480E0B95}</c15:txfldGUID>
+                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>WED</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>THU</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{99A8347F-80F0-4D72-8242-CBDE65A72BDF}</c15:txfldGUID>
+                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>THU</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
@@ -5682,8 +5952,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{83C5AE5A-8A07-48D5-8BC8-AAA48B8356C8}</c15:txfldGUID>
-                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:txfldGUID>{31CB7CF2-D765-4928-842D-81AA1A3BBB33}</c15:txfldGUID>
+                      <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5697,11 +5967,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$70</c:f>
+                  <c:f>calcs!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5722,8 +5992,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D00D72E0-10FA-41C9-AE81-1E729CC7377A}</c15:txfldGUID>
-                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:txfldGUID>{8CBE67DB-3FCC-4AE6-A9AA-AF0ADEB777B8}</c15:txfldGUID>
+                      <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5737,11 +6007,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$70</c:f>
+                  <c:f>calcs!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5762,8 +6032,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{45205B7E-0CF0-41FE-9E40-B8A7C29A1513}</c15:txfldGUID>
-                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:txfldGUID>{AAB8F140-DB92-4EC9-8ED0-7B96AAE7CE55}</c15:txfldGUID>
+                      <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5777,11 +6047,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$70</c:f>
+                  <c:f>calcs!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5802,8 +6072,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3D275C26-2AF3-4FE9-A861-1C2E153CA78F}</c15:txfldGUID>
-                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:txfldGUID>{6B1E11A1-D093-42AF-8CE6-D49F936DDFCF}</c15:txfldGUID>
+                      <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5817,11 +6087,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$70</c:f>
+                  <c:f>calcs!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5842,8 +6112,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FAE495A0-7B82-419D-8FE5-C874B49CD79F}</c15:txfldGUID>
-                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:txfldGUID>{1FE51083-F19A-4C97-81A7-AAA374724BB0}</c15:txfldGUID>
+                      <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5857,11 +6127,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$70</c:f>
+                  <c:f>calcs!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5882,8 +6152,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{44D77EED-722E-4735-BABF-E461115DD2EE}</c15:txfldGUID>
-                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:txfldGUID>{4F57ED9B-4794-492C-A121-2A206226C972}</c15:txfldGUID>
+                      <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5897,11 +6167,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$70</c:f>
+                  <c:f>calcs!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5922,8 +6192,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FFBDD465-6DC6-4E7A-AB20-9BE61B2ABEEF}</c15:txfldGUID>
-                      <c15:f>calcs!$K$70</c15:f>
+                      <c15:txfldGUID>{0C64DEB2-AB33-444A-8E63-1AE3EBCFB451}</c15:txfldGUID>
+                      <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5937,11 +6207,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$70</c:f>
+                  <c:f>calcs!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5962,8 +6232,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B6ABBFE4-1FC6-447E-AEFE-31A7033AE2C1}</c15:txfldGUID>
-                      <c15:f>calcs!$L$70</c15:f>
+                      <c15:txfldGUID>{E282E24A-ECCE-4923-B206-7B254E5B7545}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5977,11 +6247,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$70</c:f>
+                  <c:f>calcs!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6002,8 +6272,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C48A52CA-4480-4940-BFD1-B06096E85398}</c15:txfldGUID>
-                      <c15:f>calcs!$M$70</c15:f>
+                      <c15:txfldGUID>{2585C4C1-2990-461A-9860-BADEEF98EFE7}</c15:txfldGUID>
+                      <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6017,11 +6287,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$70</c:f>
+                  <c:f>calcs!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6042,8 +6312,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0A1037E1-E94D-4A62-9116-39D198184A9A}</c15:txfldGUID>
-                      <c15:f>calcs!$N$70</c15:f>
+                      <c15:txfldGUID>{A999E413-098A-4AE9-9F83-A61F0E1CC362}</c15:txfldGUID>
+                      <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6057,11 +6327,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$70</c:f>
+                  <c:f>calcs!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6082,8 +6352,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9882A14F-CB7C-41AC-B694-4C1CF1B1289B}</c15:txfldGUID>
-                      <c15:f>calcs!$O$70</c15:f>
+                      <c15:txfldGUID>{A1114C12-55AA-49C1-B034-5EC68FEE7062}</c15:txfldGUID>
+                      <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6097,11 +6367,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$70</c:f>
+                  <c:f>calcs!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6122,8 +6392,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F93C9551-A650-4A62-AC8A-1C7FD31C30EA}</c15:txfldGUID>
-                      <c15:f>calcs!$P$70</c15:f>
+                      <c15:txfldGUID>{423F6BA5-6816-4713-B2BF-9020EA6D617D}</c15:txfldGUID>
+                      <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6137,11 +6407,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$70</c:f>
+                  <c:f>calcs!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6162,8 +6432,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3AF5C0B7-6006-4FDA-9CBD-57DBE99611B6}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$70</c15:f>
+                      <c15:txfldGUID>{70903BE4-335D-4EDD-9167-AF20B30F9F20}</c15:txfldGUID>
+                      <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6177,11 +6447,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$70</c:f>
+                  <c:f>calcs!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6202,8 +6472,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{818913BF-36C4-48BC-9395-14BDAC8AECC1}</c15:txfldGUID>
-                      <c15:f>calcs!$R$70</c15:f>
+                      <c15:txfldGUID>{FB1CF11C-93B1-4D41-A620-5C00F37D6BBF}</c15:txfldGUID>
+                      <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6217,11 +6487,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$70</c:f>
+                  <c:f>calcs!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6242,8 +6512,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CA60516A-EB99-44F2-8034-39BD3D9BC790}</c15:txfldGUID>
-                      <c15:f>calcs!$S$70</c15:f>
+                      <c15:txfldGUID>{9B721C0A-89F6-4B73-8D14-72788993820C}</c15:txfldGUID>
+                      <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6257,11 +6527,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$70</c:f>
+                  <c:f>calcs!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6282,8 +6552,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{20955104-BABF-47CD-AA4B-AB37DF70EC8F}</c15:txfldGUID>
-                      <c15:f>calcs!$T$70</c15:f>
+                      <c15:txfldGUID>{4780E49A-B247-4BCE-AA3C-5A8436DC6F38}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6297,11 +6567,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$70</c:f>
+                  <c:f>calcs!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6322,8 +6592,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{80E12F71-EB24-4682-8132-8A737E4CF12C}</c15:txfldGUID>
-                      <c15:f>calcs!$U$70</c15:f>
+                      <c15:txfldGUID>{8B994E32-75E6-491A-B74F-6D75897F6EA3}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6337,11 +6607,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$70</c:f>
+                  <c:f>calcs!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6362,8 +6632,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{087101C4-E8B7-4891-9C95-01C231F6147D}</c15:txfldGUID>
-                      <c15:f>calcs!$V$70</c15:f>
+                      <c15:txfldGUID>{8CE6546E-7215-4567-B9FE-F3DFE274CC89}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6377,11 +6647,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$70</c:f>
+                  <c:f>calcs!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6402,8 +6672,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{55C65FD4-0CB4-4AF4-AD3D-EDA419B9B717}</c15:txfldGUID>
-                      <c15:f>calcs!$W$70</c15:f>
+                      <c15:txfldGUID>{08CF0C62-6DBF-423F-85AF-30C69A83C3F6}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6417,11 +6687,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$70</c:f>
+                  <c:f>calcs!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6442,8 +6712,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C43C32EA-7A25-4A92-9A25-D86251D73E6D}</c15:txfldGUID>
-                      <c15:f>calcs!$X$70</c15:f>
+                      <c15:txfldGUID>{19D46336-29B1-40DC-BF47-9B7C21293023}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6457,11 +6727,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$70</c:f>
+                  <c:f>calcs!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6482,8 +6752,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D0926CD1-8632-4A4F-A5B5-3A5558833493}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$70</c15:f>
+                      <c15:txfldGUID>{711EF096-2A09-4566-921B-70C860870712}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6497,11 +6767,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$70</c:f>
+                  <c:f>calcs!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6522,8 +6792,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{70E2CED7-0061-4587-BEC0-FA97F0C99BA2}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$70</c15:f>
+                      <c15:txfldGUID>{7D7C7D68-3EBA-4B2D-BB6A-1E9313F5E9D7}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6537,11 +6807,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$70</c:f>
+                  <c:f>calcs!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6562,8 +6832,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8FFF7905-714D-45AA-93A0-DB0872327E18}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$70</c15:f>
+                      <c15:txfldGUID>{0AE4282B-CE58-420F-9FC3-9E8DC54157DE}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6577,11 +6847,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$70</c:f>
+                  <c:f>calcs!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6602,8 +6872,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DDAC9381-5CF6-4D36-9141-8BB8FC7FB4ED}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$70</c15:f>
+                      <c15:txfldGUID>{0E9BB59D-A614-4088-99E1-2CEFC40DB8F5}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6617,11 +6887,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AC$70</c:f>
+                  <c:f>calcs!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6642,212 +6912,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EB111594-E362-4549-B737-B8BD5E7022AB}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$70</c15:f>
+                      <c15:txfldGUID>{F227525E-4643-461F-9657-EA625610FDAE}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>MON</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>TUE</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{007D0249-ACE8-4D0D-99C3-9FF8827228AF}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>TUE</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>WED</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B3F8BBD1-EA45-416B-9F54-01DE62FCFDA4}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>WED</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>THU</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C805177-3AE0-4BED-9899-67F644300169}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>THU</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>FRI</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3827AAA9-B606-4062-A83A-ACB24AE3F3FF}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>FRI</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SAT</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{59D3BC8D-3303-43CB-8DAD-3D7CF48D3896}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SAT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6996,7 +7066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>May 2014 - Top Band</c:v>
+                  <c:v>Jul 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7075,16 +7145,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -7121,7 +7191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jun 2014 - Top Band</c:v>
+                  <c:v>Aug 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7200,16 +7270,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>13</c:v>
@@ -7247,11 +7317,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="867346704"/>
-        <c:axId val="867343984"/>
+        <c:axId val="137537632"/>
+        <c:axId val="138651456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="867346704"/>
+        <c:axId val="137537632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7274,14 +7344,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="867343984"/>
+        <c:crossAx val="138651456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="867343984"/>
+        <c:axId val="138651456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7293,7 +7363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="867346704"/>
+        <c:crossAx val="137537632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7328,7 +7398,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="100" noThreeD="1" page="7" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="100" noThreeD="1" page="7" val="65"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7674,8 +7744,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8073,7 +8143,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8092,7 +8162,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8121,9 +8191,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
-      <c r="E15">
+      <c r="E15" t="e">
         <f t="array" ref="E15">INDEX(Activities[Id],MATCH(1, ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
@@ -8132,9 +8202,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
-      <c r="E16">
+      <c r="E16" t="e">
         <f t="array" ref="E16">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="F16" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8143,53 +8213,53 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
-      <c r="E17">
+      <c r="E17" t="e">
         <f t="array" ref="E17">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>3</v>
-      </c>
-      <c r="F17">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E18">
+      <c r="E18" t="e">
         <f t="array" ref="E18">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>4</v>
-      </c>
-      <c r="F18">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E19">
+      <c r="E19" t="e">
         <f t="array" ref="E19">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>5</v>
-      </c>
-      <c r="F19">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E20">
+      <c r="E20" t="e">
         <f t="array" ref="E20">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>6</v>
-      </c>
-      <c r="F20">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E21">
+      <c r="E21" t="e">
         <f t="array" ref="E21">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E20)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>7</v>
-      </c>
-      <c r="F21">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -8197,9 +8267,9 @@
         <f t="array" ref="E22">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E21)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -8207,9 +8277,9 @@
         <f t="array" ref="E23">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E22)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -8218,7 +8288,7 @@
       </c>
       <c r="D25" s="1">
         <f>StartDate+WindowOffset</f>
-        <v>41768</v>
+        <v>41833</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -8226,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
@@ -8261,127 +8331,127 @@
       </c>
       <c r="E31" s="1">
         <f>StartDateWindow</f>
-        <v>41768</v>
+        <v>41833</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>41769</v>
+        <v>41834</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>41770</v>
+        <v>41835</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>41771</v>
+        <v>41836</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>41772</v>
+        <v>41837</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>41773</v>
+        <v>41838</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>41774</v>
+        <v>41839</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>41775</v>
+        <v>41840</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>41776</v>
+        <v>41841</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>41777</v>
+        <v>41842</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>41778</v>
+        <v>41843</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>41779</v>
+        <v>41844</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>41780</v>
+        <v>41845</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>41781</v>
+        <v>41846</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>41782</v>
+        <v>41847</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>41783</v>
+        <v>41848</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>41784</v>
+        <v>41849</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>41785</v>
+        <v>41850</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>41786</v>
+        <v>41851</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>41787</v>
+        <v>41852</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>41788</v>
+        <v>41853</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>41789</v>
+        <v>41854</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>41790</v>
+        <v>41855</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>41791</v>
+        <v>41856</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>41792</v>
+        <v>41857</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>41793</v>
+        <v>41858</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>41794</v>
+        <v>41859</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>41795</v>
+        <v>41860</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>41796</v>
+        <v>41861</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>41797</v>
+        <v>41862</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>41798</v>
+        <v>41863</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -8673,17 +8743,17 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C34,Activities[Id],0))</f>
-        <v>Project Start</v>
-      </c>
-      <c r="E34">
-        <f ca="1">GridCalc</f>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="F34" t="e">
         <f ca="1">GridCalc</f>
@@ -8814,13 +8884,13 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C35,Activities[Id],0))</f>
-        <v>Client Meeting 01</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" t="e">
         <f ca="1">GridCalc</f>
@@ -8838,9 +8908,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="I35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
+      <c r="I35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="J35" t="e">
         <f ca="1">GridCalc</f>
@@ -8955,13 +9025,13 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C36,Activities[Id],0))</f>
-        <v>Requirements Integration</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" t="e">
         <f ca="1">GridCalc</f>
@@ -9007,21 +9077,21 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="P36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="Q36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="R36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="S36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
+      <c r="P36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="T36" t="e">
         <f ca="1">GridCalc</f>
@@ -9096,13 +9166,13 @@
       <c r="B37">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C37,Activities[Id],0))</f>
-        <v>First Demo Session</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">GridCalc</f>
@@ -9172,9 +9242,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="V37">
-        <f ca="1">GridCalc</f>
-        <v>6.3000000000000007</v>
+      <c r="V37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="W37" t="e">
         <f ca="1">GridCalc</f>
@@ -9237,13 +9307,13 @@
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D38" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C38,Activities[Id],0))</f>
-        <v>Project timeline Compilation</v>
+        <v>#N/A</v>
       </c>
       <c r="E38" t="e">
         <f ca="1">GridCalc</f>
@@ -9297,29 +9367,29 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="R38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="S38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="T38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="U38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="V38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="W38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
+      <c r="R38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="X38" t="e">
         <f ca="1">GridCalc</f>
@@ -9378,13 +9448,13 @@
       <c r="B39">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C39,Activities[Id],0))</f>
-        <v>Requirements Re-do</v>
+        <v>#N/A</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">GridCalc</f>
@@ -9454,61 +9524,61 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="V39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="W39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="X39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="Y39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="Z39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AA39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AB39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AC39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AD39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AE39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AF39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AG39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AH39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AI39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
+      <c r="V39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
@@ -9519,13 +9589,13 @@
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C40,Activities[Id],0))</f>
-        <v>System Prototyping + DB Design</v>
+        <v>#N/A</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">GridCalc</f>
@@ -9603,175 +9673,175 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="X40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="Y40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="Z40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AA40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AB40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AC40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AD40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AE40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AF40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AG40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AH40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AI40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
+      <c r="X40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>41768</v>
+        <v>41833</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>41769</v>
+        <v>41834</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>41770</v>
+        <v>41835</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>41771</v>
+        <v>41836</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>41772</v>
+        <v>41837</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>41773</v>
+        <v>41838</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>41774</v>
+        <v>41839</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>41775</v>
+        <v>41840</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>41776</v>
+        <v>41841</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>41777</v>
+        <v>41842</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>41778</v>
+        <v>41843</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>41779</v>
+        <v>41844</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>41780</v>
+        <v>41845</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>41781</v>
+        <v>41846</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>41782</v>
+        <v>41847</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>41783</v>
+        <v>41848</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>41784</v>
+        <v>41849</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>41785</v>
+        <v>41850</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>41786</v>
+        <v>41851</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>41787</v>
+        <v>41852</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>41788</v>
+        <v>41853</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>41789</v>
+        <v>41854</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>41790</v>
+        <v>41855</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>41791</v>
+        <v>41856</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>41792</v>
+        <v>41857</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>41793</v>
+        <v>41858</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>41794</v>
+        <v>41859</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>41795</v>
+        <v>41860</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>41796</v>
+        <v>41861</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>41797</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -10035,17 +10105,17 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C46">
+      <c r="C46" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C46,Activities[Id],0)))</f>
-        <v>PROJECT START</v>
-      </c>
-      <c r="E46">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="F46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10165,13 +10235,13 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C47">
+      <c r="C47" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C47,Activities[Id],0)))</f>
-        <v>CLIENT MEETING 01</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10189,9 +10259,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="J47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10295,13 +10365,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C48">
+      <c r="C48" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="D48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C48,Activities[Id],0)))</f>
-        <v>REQUIREMENTS INTEGRATION</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -10359,9 +10429,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="S48">
+      <c r="S48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="T48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10425,13 +10495,13 @@
       </c>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C49">
+      <c r="C49" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C49,Activities[Id],0)))</f>
-        <v>FIRST DEMO SESSION</v>
+        <v>#N/A</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10501,9 +10571,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="V49">
+      <c r="V49" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="W49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -10555,13 +10625,13 @@
       </c>
     </row>
     <row r="50" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C50">
+      <c r="C50" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="D50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C50,Activities[Id],0)))</f>
-        <v>PROJECT TIMELINE COMPILATION</v>
+        <v>#N/A</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -10635,9 +10705,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="W50">
+      <c r="W50" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="X50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -10685,13 +10755,13 @@
       </c>
     </row>
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C51">
+      <c r="C51" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="D51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C51,Activities[Id],0)))</f>
-        <v>REQUIREMENTS RE-DO</v>
+        <v>#N/A</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -10815,13 +10885,13 @@
       </c>
     </row>
     <row r="52" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C52">
+      <c r="C52" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="D52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C52,Activities[Id],0)))</f>
-        <v>SYSTEM PROTOTYPING + DB DESIGN</v>
+        <v>#N/A</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -10947,123 +11017,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>41768</v>
+        <v>41833</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>41769</v>
+        <v>41834</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>41770</v>
+        <v>41835</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>41771</v>
+        <v>41836</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>41772</v>
+        <v>41837</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>41773</v>
+        <v>41838</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>41774</v>
+        <v>41839</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>41775</v>
+        <v>41840</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>41776</v>
+        <v>41841</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>41777</v>
+        <v>41842</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>41778</v>
+        <v>41843</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>41779</v>
+        <v>41844</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>41780</v>
+        <v>41845</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>41781</v>
+        <v>41846</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>41782</v>
+        <v>41847</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>41783</v>
+        <v>41848</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>41784</v>
+        <v>41849</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>41785</v>
+        <v>41850</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>41786</v>
+        <v>41851</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>41787</v>
+        <v>41852</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>41788</v>
+        <v>41853</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>41789</v>
+        <v>41854</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>41790</v>
+        <v>41855</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>41791</v>
+        <v>41856</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>41792</v>
+        <v>41857</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>41793</v>
+        <v>41858</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>41794</v>
+        <v>41859</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>41795</v>
+        <v>41860</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>41796</v>
+        <v>41861</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>41797</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
@@ -11138,9 +11208,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="V56">
+      <c r="V56" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="W56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11194,7 +11264,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D58" s="3">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="E58">
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11272,21 +11342,21 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="X58">
+      <c r="X58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y58">
+        <v>#N/A</v>
+      </c>
+      <c r="Y58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z58">
+        <v>#N/A</v>
+      </c>
+      <c r="Z58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="AA58">
+        <v>#N/A</v>
+      </c>
+      <c r="AA58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB58" t="e">
         <f t="shared" si="17"/>
@@ -11320,7 +11390,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="str">
         <f>TEXT(D58,"mmm yyyy") &amp; " - Top Band"</f>
-        <v>May 2014 - Top Band</v>
+        <v>Jul 2014 - Top Band</v>
       </c>
       <c r="E59">
         <f>E58+12.5</f>
@@ -11398,21 +11468,21 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="X59">
+      <c r="X59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Y59">
+        <v>#N/A</v>
+      </c>
+      <c r="Y59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Z59">
+        <v>#N/A</v>
+      </c>
+      <c r="Z59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="AA59">
+        <v>#N/A</v>
+      </c>
+      <c r="AA59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AB59" t="e">
         <f t="shared" si="18"/>
@@ -11449,7 +11519,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D61" s="3">
         <f>EOMONTH(D58,0)+1</f>
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="E61" t="e">
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -11527,21 +11597,21 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="X61" t="e">
+      <c r="X61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Y61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Z61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AA61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AB61">
         <f t="shared" si="19"/>
@@ -11575,7 +11645,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="str">
         <f>TEXT(D61,"mmm yyyy") &amp; " - Top Band"</f>
-        <v>Jun 2014 - Top Band</v>
+        <v>Aug 2014 - Top Band</v>
       </c>
       <c r="E62" t="e">
         <f>E61+12.5</f>
@@ -11653,21 +11723,21 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="X62" t="e">
+      <c r="X62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y62" t="e">
+        <v>13</v>
+      </c>
+      <c r="Y62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z62" t="e">
+        <v>13</v>
+      </c>
+      <c r="Z62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA62" t="e">
+        <v>13</v>
+      </c>
+      <c r="AA62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AB62">
         <f t="shared" si="20"/>
@@ -11704,7 +11774,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D65" s="3">
         <f>D58+1</f>
-        <v>41761</v>
+        <v>41822</v>
       </c>
       <c r="E65" t="e">
         <f>IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -11830,7 +11900,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D66" s="3">
         <f>D61+1</f>
-        <v>41792</v>
+        <v>41853</v>
       </c>
       <c r="E66" t="e">
         <f>IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -11912,9 +11982,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="Y66" t="e">
+      <c r="Y66">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="Z66" t="e">
         <f t="shared" si="21"/>
@@ -11928,9 +11998,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" t="e">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AD66" t="e">
         <f t="shared" si="21"/>
@@ -12080,123 +12150,123 @@
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.2">
@@ -12323,123 +12393,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>09</v>
+        <v>13</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>01</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>02</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>03</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>04</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>05</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>06</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>07</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>08</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>09</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>10</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -22,67 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-do we have to include this since they are already done and are not part of the current time line</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F28" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-prototype design and playing around with technlogies, installing and testing.
-This must also include client meetings, which should be as frequent as possible.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Activity</t>
   </si>
@@ -138,55 +79,100 @@
     <t>Project Start</t>
   </si>
   <si>
-    <t>Project End</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENTER START DATE: </t>
-  </si>
-  <si>
-    <t>Client Meeting 01</t>
-  </si>
-  <si>
-    <t>Requirements Integration</t>
   </si>
   <si>
     <t>First Demo Session</t>
   </si>
   <si>
-    <t>Demonstration of our understanding of the project, etc</t>
+    <t>The_Gruners PROJECT TIMELINE</t>
   </si>
   <si>
-    <t>Put together all requirements documentation counterparts</t>
+    <t>Client Meeeting 1</t>
   </si>
   <si>
-    <t>Project timeline Compilation</t>
+    <t>Requirement Integration</t>
   </si>
   <si>
-    <t>Requirements Re-do</t>
+    <t>Project Timeline Compilation</t>
   </si>
   <si>
-    <t>Revisit requirements and make the more understandable and fixed</t>
+    <t>Requirement Re-do</t>
   </si>
   <si>
-    <t>Creating applications and interface activities</t>
+    <t>Client Meeeting 2</t>
+  </si>
+  <si>
+    <t>System Prototype &amp; DB Design</t>
+  </si>
+  <si>
+    <t>Progress Report 1</t>
+  </si>
+  <si>
+    <t>Meet Stacey 1</t>
+  </si>
+  <si>
+    <t>Meet Stacey 2</t>
+  </si>
+  <si>
+    <t>Client Meeting 3</t>
   </si>
   <si>
     <t>Critical Use Case Implementation</t>
   </si>
   <si>
-    <t>System Prototyping + DB Design</t>
-  </si>
-  <si>
-    <t>Making sure the critical use cases are working</t>
+    <t>Progress Report 2</t>
   </si>
   <si>
     <t>Important Use Case Implementation</t>
   </si>
   <si>
-    <t>This is to be submitted to Stacy by the 27th May</t>
+    <t>Second Demo Session</t>
   </si>
   <si>
-    <t>The_Gruners PROJECT TIMELINE</t>
+    <t>Client Meeting 4</t>
+  </si>
+  <si>
+    <t>Client Meeting 5</t>
+  </si>
+  <si>
+    <t>Progress Report 3</t>
+  </si>
+  <si>
+    <t>Meet Stacey 3</t>
+  </si>
+  <si>
+    <t>Progress Report 4</t>
+  </si>
+  <si>
+    <t>Client Meeting 6</t>
+  </si>
+  <si>
+    <t>Client Meeting 7</t>
+  </si>
+  <si>
+    <t>Progress Report 5</t>
+  </si>
+  <si>
+    <t>Meet Stacey 7</t>
+  </si>
+  <si>
+    <t>Nice To Have Use Case Implementation</t>
+  </si>
+  <si>
+    <t>Meet Stacy 8</t>
+  </si>
+  <si>
+    <t>Progress Report 6</t>
+  </si>
+  <si>
+    <t>Project End</t>
+  </si>
+  <si>
+    <t>Start Date of Project</t>
+  </si>
+  <si>
+    <t>End Date of Project</t>
   </si>
 </sst>
 </file>
@@ -197,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3"/>
@@ -240,19 +226,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -324,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,15 +340,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -389,6 +353,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -577,94 +544,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41833</c:v>
+                  <c:v>41768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41834</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41835</c:v>
+                  <c:v>41770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41836</c:v>
+                  <c:v>41771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41837</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41838</c:v>
+                  <c:v>41773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41839</c:v>
+                  <c:v>41774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41840</c:v>
+                  <c:v>41775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41841</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41842</c:v>
+                  <c:v>41777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41843</c:v>
+                  <c:v>41778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41844</c:v>
+                  <c:v>41779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41845</c:v>
+                  <c:v>41780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41846</c:v>
+                  <c:v>41781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41847</c:v>
+                  <c:v>41782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41848</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41849</c:v>
+                  <c:v>41784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41850</c:v>
+                  <c:v>41785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41852</c:v>
+                  <c:v>41787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41853</c:v>
+                  <c:v>41788</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41854</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41855</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41856</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41857</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41858</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41859</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41860</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41861</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41862</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +643,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -779,7 +746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>PROJECT START</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -816,6 +783,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -827,7 +795,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -967,94 +935,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41833</c:v>
+                  <c:v>41768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41834</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41835</c:v>
+                  <c:v>41770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41836</c:v>
+                  <c:v>41771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41837</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41838</c:v>
+                  <c:v>41773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41839</c:v>
+                  <c:v>41774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41840</c:v>
+                  <c:v>41775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41841</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41842</c:v>
+                  <c:v>41777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41843</c:v>
+                  <c:v>41778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41844</c:v>
+                  <c:v>41779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41845</c:v>
+                  <c:v>41780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41846</c:v>
+                  <c:v>41781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41847</c:v>
+                  <c:v>41782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41848</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41849</c:v>
+                  <c:v>41784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41850</c:v>
+                  <c:v>41785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41852</c:v>
+                  <c:v>41787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41853</c:v>
+                  <c:v>41788</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41854</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41855</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41856</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41857</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41858</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41859</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41860</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41861</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41862</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1046,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1169,7 +1137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>CLIENT MEEETING 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1206,6 +1174,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1229,7 +1198,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1357,94 +1326,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41833</c:v>
+                  <c:v>41768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41834</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41835</c:v>
+                  <c:v>41770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41836</c:v>
+                  <c:v>41771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41837</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41838</c:v>
+                  <c:v>41773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41839</c:v>
+                  <c:v>41774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41840</c:v>
+                  <c:v>41775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41841</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41842</c:v>
+                  <c:v>41777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41843</c:v>
+                  <c:v>41778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41844</c:v>
+                  <c:v>41779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41845</c:v>
+                  <c:v>41780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41846</c:v>
+                  <c:v>41781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41847</c:v>
+                  <c:v>41782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41848</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41849</c:v>
+                  <c:v>41784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41850</c:v>
+                  <c:v>41785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41852</c:v>
+                  <c:v>41787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41853</c:v>
+                  <c:v>41788</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41854</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41855</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41856</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41857</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41858</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41859</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41860</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41861</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41862</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,16 +1458,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -1559,7 +1528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>REQUIREMENT INTEGRATION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1653,7 +1622,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -1751,94 +1720,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41833</c:v>
+                  <c:v>41768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41834</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41835</c:v>
+                  <c:v>41770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41836</c:v>
+                  <c:v>41771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41837</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41838</c:v>
+                  <c:v>41773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41839</c:v>
+                  <c:v>41774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41840</c:v>
+                  <c:v>41775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41841</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41842</c:v>
+                  <c:v>41777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41843</c:v>
+                  <c:v>41778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41844</c:v>
+                  <c:v>41779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41845</c:v>
+                  <c:v>41780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41846</c:v>
+                  <c:v>41781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41847</c:v>
+                  <c:v>41782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41848</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41849</c:v>
+                  <c:v>41784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41850</c:v>
+                  <c:v>41785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41852</c:v>
+                  <c:v>41787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41853</c:v>
+                  <c:v>41788</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41854</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41855</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41856</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41857</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41858</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41859</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41860</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41861</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41862</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,22 +1858,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1953,7 +1922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>PROJECT TIMELINE COMPILATION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2056,7 +2025,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -2142,94 +2111,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41833</c:v>
+                  <c:v>41768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41834</c:v>
+                  <c:v>41769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41835</c:v>
+                  <c:v>41770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41836</c:v>
+                  <c:v>41771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41837</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41838</c:v>
+                  <c:v>41773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41839</c:v>
+                  <c:v>41774</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41840</c:v>
+                  <c:v>41775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41841</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41842</c:v>
+                  <c:v>41777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41843</c:v>
+                  <c:v>41778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41844</c:v>
+                  <c:v>41779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41845</c:v>
+                  <c:v>41780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41846</c:v>
+                  <c:v>41781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41847</c:v>
+                  <c:v>41782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41848</c:v>
+                  <c:v>41783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41849</c:v>
+                  <c:v>41784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41850</c:v>
+                  <c:v>41785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41851</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41852</c:v>
+                  <c:v>41787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41853</c:v>
+                  <c:v>41788</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41854</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41855</c:v>
+                  <c:v>41790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41856</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41857</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41858</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41859</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41860</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41861</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41862</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,7 +2261,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2344,7 +2313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>FIRST DEMO SESSION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2444,7 +2413,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2584,43 +2553,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,7 +2605,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>REQUIREMENT RE-DO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2673,7 +2642,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2882,37 +2850,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2928,7 +2896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>SYSTEM PROTOTYPE &amp; DB DESIGN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2965,7 +2933,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3180,7 +3147,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3220,7 +3187,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>PROGRESS REPORT 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3335,7 +3302,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3496,7 +3463,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3515,7 +3482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>MEET STACEY 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3648,7 +3615,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3744,7 +3711,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3793,7 +3760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jul 2014</c:v>
+                  <c:v>May 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3872,16 +3839,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -3918,7 +3885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aug 2014</c:v>
+                  <c:v>Jun 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3997,16 +3964,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.5</c:v>
@@ -4043,7 +4010,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aug 2014</c:v>
+                  <c:v>Jun 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4155,19 +4122,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4198,7 +4165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jul 2014</c:v>
+                  <c:v>May 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4388,6 +4355,166 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>09</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{846BBF51-6092-4FF2-AE8C-9C9ADB4BC1BD}</c15:txfldGUID>
+                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>09</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>10</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{0F357F5F-DD47-4C3D-9F12-B07B33FBDBCF}</c15:txfldGUID>
+                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>10</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>11</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E00F725E-B58E-4AA8-AA70-CC1A5B4CB2CF}</c15:txfldGUID>
+                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>11</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>12</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FD40B7DC-ECFF-45E3-954E-F9DCDE7F48C7}</c15:txfldGUID>
+                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>12</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>13</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4405,8 +4532,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CC25D931-4DB8-4169-98A5-9512FE026D4E}</c15:txfldGUID>
-                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:txfldGUID>{6A9A1CAF-372C-4270-BD85-88BA274E7BF0}</c15:txfldGUID>
+                      <c15:f>calcs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4420,11 +4547,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$72</c:f>
+                  <c:f>calcs!$J$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4445,8 +4572,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{956A7126-CC03-438E-AC54-94E74B9315C0}</c15:txfldGUID>
-                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:txfldGUID>{0CAC109A-6368-41BF-90B9-D80164001B97}</c15:txfldGUID>
+                      <c15:f>calcs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4460,11 +4587,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$72</c:f>
+                  <c:f>calcs!$K$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4485,8 +4612,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{871295AE-91EA-4E1A-A9D2-A2FCBC17CFDA}</c15:txfldGUID>
-                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:txfldGUID>{ED3EA9AE-CC64-4D11-83FE-1C0EFD3FC5E2}</c15:txfldGUID>
+                      <c15:f>calcs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4500,11 +4627,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$72</c:f>
+                  <c:f>calcs!$L$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4525,8 +4652,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{89D88C4C-908C-443B-8A41-8AEC8CEFFF07}</c15:txfldGUID>
-                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:txfldGUID>{956273C8-5498-4FEC-A97E-81CF58814EE1}</c15:txfldGUID>
+                      <c15:f>calcs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4540,11 +4667,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$72</c:f>
+                  <c:f>calcs!$M$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4565,8 +4692,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A15B6A2A-CAC8-4922-9CFC-F2C4E279F833}</c15:txfldGUID>
-                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:txfldGUID>{FE930E27-D146-46DD-B687-F1586CCE2069}</c15:txfldGUID>
+                      <c15:f>calcs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4580,11 +4707,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$72</c:f>
+                  <c:f>calcs!$N$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4605,8 +4732,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DEC050BE-766E-4EE9-9D4A-1E49A70DAA18}</c15:txfldGUID>
-                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:txfldGUID>{64D62AD7-ECD1-461E-9024-29DB640303EC}</c15:txfldGUID>
+                      <c15:f>calcs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4620,11 +4747,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$72</c:f>
+                  <c:f>calcs!$O$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4645,8 +4772,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8279FF44-32B1-4A41-A343-35EB5CE87764}</c15:txfldGUID>
-                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:txfldGUID>{0C3340FD-4E50-4BB9-AF07-90E78BC842F8}</c15:txfldGUID>
+                      <c15:f>calcs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4660,11 +4787,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$72</c:f>
+                  <c:f>calcs!$P$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4685,8 +4812,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{34299831-0FC0-4834-BEF8-87EC5A5E9C87}</c15:txfldGUID>
-                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:txfldGUID>{2DE6A4C8-9FC0-49A0-8485-300DC8216220}</c15:txfldGUID>
+                      <c15:f>calcs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4700,11 +4827,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$72</c:f>
+                  <c:f>calcs!$Q$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4725,8 +4852,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D9A6652E-A4D4-498F-BD42-E0CD02246DBF}</c15:txfldGUID>
-                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:txfldGUID>{642191DA-86D3-40A9-8EC2-338AAF7EC3C2}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4740,11 +4867,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$72</c:f>
+                  <c:f>calcs!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4765,8 +4892,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E421F6B2-50C4-449E-A65E-CFF13827C952}</c15:txfldGUID>
-                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:txfldGUID>{AB9FAF00-D58C-46B7-8662-F5FB54B11345}</c15:txfldGUID>
+                      <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4780,11 +4907,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$72</c:f>
+                  <c:f>calcs!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4805,8 +4932,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B0AC4367-BDB7-44B5-A5B1-976EEDBE266A}</c15:txfldGUID>
-                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:txfldGUID>{9E0ADC80-A88A-496C-9A31-F9AD958CC982}</c15:txfldGUID>
+                      <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4820,11 +4947,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$72</c:f>
+                  <c:f>calcs!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4845,8 +4972,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{65D6FE41-BB05-4BE8-B151-20CB0DFD4751}</c15:txfldGUID>
-                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:txfldGUID>{343B068A-7ECE-45DB-802C-3B5E4E761F12}</c15:txfldGUID>
+                      <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4860,11 +4987,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$72</c:f>
+                  <c:f>calcs!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4885,8 +5012,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E0722E37-12AD-4ECC-8DA3-73D093D6A63B}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:txfldGUID>{BFFB38D6-680D-465C-BCFF-9D39896FE990}</c15:txfldGUID>
+                      <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4900,11 +5027,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$72</c:f>
+                  <c:f>calcs!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4925,8 +5052,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A61B7500-BD66-465A-BC0D-45705E11EC90}</c15:txfldGUID>
-                      <c15:f>calcs!$R$72</c15:f>
+                      <c15:txfldGUID>{56DB8571-037D-4868-8C9E-B253210ECB69}</c15:txfldGUID>
+                      <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4940,11 +5067,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$72</c:f>
+                  <c:f>calcs!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4965,8 +5092,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E1F540DA-1656-44D2-B5F8-DBFF2906F77A}</c15:txfldGUID>
-                      <c15:f>calcs!$S$72</c15:f>
+                      <c15:txfldGUID>{E8501C27-B444-493A-8240-262332ADB36F}</c15:txfldGUID>
+                      <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4980,11 +5107,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$72</c:f>
+                  <c:f>calcs!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5005,8 +5132,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{33331D2A-81FF-4149-91D6-AC6F91F1F589}</c15:txfldGUID>
-                      <c15:f>calcs!$T$72</c15:f>
+                      <c15:txfldGUID>{5940F431-F872-4511-9B19-EA872535B649}</c15:txfldGUID>
+                      <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5020,11 +5147,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$72</c:f>
+                  <c:f>calcs!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5045,8 +5172,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3A6D4820-22C4-42E9-8FEE-581C2EE3BA0F}</c15:txfldGUID>
-                      <c15:f>calcs!$U$72</c15:f>
+                      <c15:txfldGUID>{8D09A6DC-C2B9-48C9-919A-743BD6962E68}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5060,11 +5187,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$72</c:f>
+                  <c:f>calcs!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5085,8 +5212,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DFD5E9A7-8469-403F-A5EB-0523CAE0DC0F}</c15:txfldGUID>
-                      <c15:f>calcs!$V$72</c15:f>
+                      <c15:txfldGUID>{EF9BFCB0-0F4D-4C55-BBE1-D9A4BC7BFD39}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5100,11 +5227,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$72</c:f>
+                  <c:f>calcs!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5125,8 +5252,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3E7D8736-FD09-42F7-BEFF-B9B1A13FE70B}</c15:txfldGUID>
-                      <c15:f>calcs!$W$72</c15:f>
+                      <c15:txfldGUID>{F50508F2-B207-4470-BA60-3FF1C7C2EEE6}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5140,11 +5267,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$72</c:f>
+                  <c:f>calcs!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5165,8 +5292,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5BCBC053-746F-410C-84FE-57BEA403DEA2}</c15:txfldGUID>
-                      <c15:f>calcs!$X$72</c15:f>
+                      <c15:txfldGUID>{A8BD1219-3F3A-4CDA-B107-43EFAA7BCFC6}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5180,11 +5307,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$72</c:f>
+                  <c:f>calcs!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5205,8 +5332,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C3394E7F-92C1-413C-9D88-EB66D82367DA}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$72</c15:f>
+                      <c15:txfldGUID>{5BE96B9F-44BD-454E-A2F4-254F5EABDA07}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5220,11 +5347,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$72</c:f>
+                  <c:f>calcs!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5245,8 +5372,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D4A92C65-EEED-4AB8-8551-CCFF7AA77FF0}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$72</c15:f>
+                      <c15:txfldGUID>{58E3CC4F-474B-4E60-B24E-2E66520AC334}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5260,11 +5387,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$72</c:f>
+                  <c:f>calcs!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5285,8 +5412,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{95087F39-016D-4714-970F-78151BD2CC09}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$72</c15:f>
+                      <c15:txfldGUID>{C71C1A24-09F9-4506-846E-259E2FC405D4}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5300,11 +5427,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$72</c:f>
+                  <c:f>calcs!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5325,8 +5452,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B737F809-2D14-429B-A5F6-B086F6588D49}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$72</c15:f>
+                      <c15:txfldGUID>{46DE722C-9A7D-4DEE-8C11-359B0D5A3270}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5340,11 +5467,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AC$72</c:f>
+                  <c:f>calcs!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5365,8 +5492,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B5A96D4-A8D5-4D74-9330-7904A72C6E31}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$72</c15:f>
+                      <c15:txfldGUID>{96E5DFD6-36A8-49B9-96DB-592FB2620D13}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5380,11 +5507,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AD$72</c:f>
+                  <c:f>calcs!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5405,172 +5532,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{54F09BF9-C0C7-4FA0-82DA-E6506476263F}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$72</c15:f>
+                      <c15:txfldGUID>{FC020F17-91D3-4EB4-A982-7A1A4CE6A76D}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>07</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>08</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{82E9A5AE-BACC-4943-AA93-6A604D11837B}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>08</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>09</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9AC8B913-730F-4091-9FFF-363586506FE0}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>09</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>10</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B503D7D1-700C-4F2F-A969-3A7EDD1D4626}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>10</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>11</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6044B027-761E-4990-846D-0ECFFED9CC79}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>11</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5735,6 +5702,86 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>FRI</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{366D6F43-709F-4FAC-BB8A-69B5399E99AD}</c15:txfldGUID>
+                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>FRI</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SAT</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{06A59490-41EC-47A3-B217-7A09D43A8E43}</c15:txfldGUID>
+                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SAT</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>SUN</c:v>
                     </c:pt>
                   </c:strCache>
@@ -5752,8 +5799,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5D0E12C4-9723-4A7A-AFC2-472DCA79F52D}</c15:txfldGUID>
-                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:txfldGUID>{8F841929-01E8-41C3-92E1-9617AEF5A62F}</c15:txfldGUID>
+                      <c15:f>calcs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5767,11 +5814,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$70</c:f>
+                  <c:f>calcs!$H$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5792,8 +5839,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E2055039-16CE-4A32-8B1F-48D37E977C90}</c15:txfldGUID>
-                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:txfldGUID>{74126369-6137-4770-97A5-F869D7AB4E8F}</c15:txfldGUID>
+                      <c15:f>calcs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5807,11 +5854,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="4"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$70</c:f>
+                  <c:f>calcs!$I$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5832,8 +5879,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E77966A7-15BD-40AB-9985-93CC99517038}</c15:txfldGUID>
-                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:txfldGUID>{E3333549-E675-4FF2-8D86-27B6FF6086A1}</c15:txfldGUID>
+                      <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5847,11 +5894,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$70</c:f>
+                  <c:f>calcs!$J$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5872,8 +5919,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BE804847-B375-43DE-9933-E3B2480E0B95}</c15:txfldGUID>
-                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:txfldGUID>{77130B11-C94E-451D-BF56-765D31EA0740}</c15:txfldGUID>
+                      <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5887,11 +5934,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$70</c:f>
+                  <c:f>calcs!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5912,8 +5959,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{99A8347F-80F0-4D72-8242-CBDE65A72BDF}</c15:txfldGUID>
-                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:txfldGUID>{C9E1DD54-B3F6-41DD-8B60-6BB8963438E1}</c15:txfldGUID>
+                      <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5927,11 +5974,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$70</c:f>
+                  <c:f>calcs!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5952,8 +5999,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31CB7CF2-D765-4928-842D-81AA1A3BBB33}</c15:txfldGUID>
-                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:txfldGUID>{01006468-7D1D-4105-90C5-0F11115E5D99}</c15:txfldGUID>
+                      <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5967,11 +6014,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$70</c:f>
+                  <c:f>calcs!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5992,8 +6039,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8CBE67DB-3FCC-4AE6-A9AA-AF0ADEB777B8}</c15:txfldGUID>
-                      <c15:f>calcs!$K$70</c15:f>
+                      <c15:txfldGUID>{FE02F13E-FAA3-44D3-A2B2-8EBCC198A0A6}</c15:txfldGUID>
+                      <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6007,11 +6054,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$70</c:f>
+                  <c:f>calcs!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6032,8 +6079,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AAB8F140-DB92-4EC9-8ED0-7B96AAE7CE55}</c15:txfldGUID>
-                      <c15:f>calcs!$L$70</c15:f>
+                      <c15:txfldGUID>{E4425405-F23D-4251-8F14-FC8AF524C7C3}</c15:txfldGUID>
+                      <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6047,11 +6094,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$70</c:f>
+                  <c:f>calcs!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6072,8 +6119,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6B1E11A1-D093-42AF-8CE6-D49F936DDFCF}</c15:txfldGUID>
-                      <c15:f>calcs!$M$70</c15:f>
+                      <c15:txfldGUID>{805ADE7C-A108-4BF5-B09F-499FE95C217A}</c15:txfldGUID>
+                      <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6087,11 +6134,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$70</c:f>
+                  <c:f>calcs!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6112,8 +6159,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1FE51083-F19A-4C97-81A7-AAA374724BB0}</c15:txfldGUID>
-                      <c15:f>calcs!$N$70</c15:f>
+                      <c15:txfldGUID>{0083A7B4-B100-45EE-9435-A77E4ACEACB7}</c15:txfldGUID>
+                      <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6127,11 +6174,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$70</c:f>
+                  <c:f>calcs!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6152,8 +6199,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4F57ED9B-4794-492C-A121-2A206226C972}</c15:txfldGUID>
-                      <c15:f>calcs!$O$70</c15:f>
+                      <c15:txfldGUID>{1177B5B6-6632-4112-BFDC-F92AC2E602E0}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6167,11 +6214,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$70</c:f>
+                  <c:f>calcs!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6192,8 +6239,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C64DEB2-AB33-444A-8E63-1AE3EBCFB451}</c15:txfldGUID>
-                      <c15:f>calcs!$P$70</c15:f>
+                      <c15:txfldGUID>{1C6F05A8-EADC-4D0F-AAD9-68EE4F445644}</c15:txfldGUID>
+                      <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6207,11 +6254,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$70</c:f>
+                  <c:f>calcs!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6232,8 +6279,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E282E24A-ECCE-4923-B206-7B254E5B7545}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$70</c15:f>
+                      <c15:txfldGUID>{6F6BF4EB-324B-43F2-ADFC-C660EEF61728}</c15:txfldGUID>
+                      <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6247,11 +6294,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$70</c:f>
+                  <c:f>calcs!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6272,8 +6319,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2585C4C1-2990-461A-9860-BADEEF98EFE7}</c15:txfldGUID>
-                      <c15:f>calcs!$R$70</c15:f>
+                      <c15:txfldGUID>{6823F31D-A03A-4C57-B1A1-B60F56EAA208}</c15:txfldGUID>
+                      <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6287,11 +6334,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$70</c:f>
+                  <c:f>calcs!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6312,8 +6359,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A999E413-098A-4AE9-9F83-A61F0E1CC362}</c15:txfldGUID>
-                      <c15:f>calcs!$S$70</c15:f>
+                      <c15:txfldGUID>{7A94699D-8AF4-411D-A2B9-08F17E65B3DE}</c15:txfldGUID>
+                      <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6327,11 +6374,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$70</c:f>
+                  <c:f>calcs!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6352,8 +6399,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A1114C12-55AA-49C1-B034-5EC68FEE7062}</c15:txfldGUID>
-                      <c15:f>calcs!$T$70</c15:f>
+                      <c15:txfldGUID>{D3892B2C-1239-447C-9DDE-3C23C1CEE3D8}</c15:txfldGUID>
+                      <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6367,11 +6414,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$70</c:f>
+                  <c:f>calcs!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6392,8 +6439,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{423F6BA5-6816-4713-B2BF-9020EA6D617D}</c15:txfldGUID>
-                      <c15:f>calcs!$U$70</c15:f>
+                      <c15:txfldGUID>{CED6AF2E-0CDE-4DA2-BE29-47497EED56F5}</c15:txfldGUID>
+                      <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6407,11 +6454,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$70</c:f>
+                  <c:f>calcs!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6432,8 +6479,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{70903BE4-335D-4EDD-9167-AF20B30F9F20}</c15:txfldGUID>
-                      <c15:f>calcs!$V$70</c15:f>
+                      <c15:txfldGUID>{0B752F60-0FD0-4A12-9E79-4F7A700EFECB}</c15:txfldGUID>
+                      <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6447,11 +6494,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$70</c:f>
+                  <c:f>calcs!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6472,8 +6519,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FB1CF11C-93B1-4D41-A620-5C00F37D6BBF}</c15:txfldGUID>
-                      <c15:f>calcs!$W$70</c15:f>
+                      <c15:txfldGUID>{6715EBFF-EC46-4909-AD9A-83A8CCBEA36A}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6487,11 +6534,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$70</c:f>
+                  <c:f>calcs!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6512,8 +6559,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9B721C0A-89F6-4B73-8D14-72788993820C}</c15:txfldGUID>
-                      <c15:f>calcs!$X$70</c15:f>
+                      <c15:txfldGUID>{10FA6CBF-930D-4D66-B9D5-8BB98D82FF26}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6527,11 +6574,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$70</c:f>
+                  <c:f>calcs!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6552,8 +6599,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4780E49A-B247-4BCE-AA3C-5A8436DC6F38}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$70</c15:f>
+                      <c15:txfldGUID>{9E5EF151-17CF-41C0-B663-55CFCC3EAEBF}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6567,11 +6614,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$70</c:f>
+                  <c:f>calcs!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6592,8 +6639,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8B994E32-75E6-491A-B74F-6D75897F6EA3}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$70</c15:f>
+                      <c15:txfldGUID>{60F352D6-307F-477B-8B7E-D152540F987D}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6607,11 +6654,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$70</c:f>
+                  <c:f>calcs!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6632,8 +6679,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8CE6546E-7215-4567-B9FE-F3DFE274CC89}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$70</c15:f>
+                      <c15:txfldGUID>{6EB43049-1DFF-4DAA-BCF7-F1D237A8C00D}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6647,11 +6694,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$70</c:f>
+                  <c:f>calcs!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6672,8 +6719,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{08CF0C62-6DBF-423F-85AF-30C69A83C3F6}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$70</c15:f>
+                      <c15:txfldGUID>{851EA1C6-5529-4D0C-822E-462B9466CC88}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6687,11 +6734,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AC$70</c:f>
+                  <c:f>calcs!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6712,8 +6759,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{19D46336-29B1-40DC-BF47-9B7C21293023}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$70</c15:f>
+                      <c15:txfldGUID>{29D8C62A-CCFE-4477-8073-C66EB148CCF0}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6727,11 +6774,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AD$70</c:f>
+                  <c:f>calcs!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6752,8 +6799,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{711EF096-2A09-4566-921B-70C860870712}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$70</c15:f>
+                      <c15:txfldGUID>{A6D60B30-B2E7-4C6A-A693-188D92A78D53}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6767,11 +6814,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="26"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AE$70</c:f>
+                  <c:f>calcs!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6792,8 +6839,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7D7C7D68-3EBA-4B2D-BB6A-1E9313F5E9D7}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$70</c15:f>
+                      <c15:txfldGUID>{9F3C9C7C-2C4F-4614-9708-EE117FA57465}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6807,11 +6854,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="27"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AF$70</c:f>
+                  <c:f>calcs!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6832,92 +6879,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0AE4282B-CE58-420F-9FC3-9E8DC54157DE}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$70</c15:f>
+                      <c15:txfldGUID>{AFA56C9E-D3CD-4499-8D97-96B2DD9185C7}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>SAT</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SUN</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0E9BB59D-A614-4088-99E1-2CEFC40DB8F5}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SUN</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>MON</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F227525E-4643-461F-9657-EA625610FDAE}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>MON</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7066,7 +7033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jul 2014 - Top Band</c:v>
+                  <c:v>May 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7145,16 +7112,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -7191,7 +7158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aug 2014 - Top Band</c:v>
+                  <c:v>Jun 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7270,16 +7237,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>13</c:v>
@@ -7317,11 +7284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137537632"/>
-        <c:axId val="138651456"/>
+        <c:axId val="-1162040288"/>
+        <c:axId val="-1162041376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="137537632"/>
+        <c:axId val="-1162040288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,14 +7311,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138651456"/>
+        <c:crossAx val="-1162041376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="138651456"/>
+        <c:axId val="-1162041376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7363,7 +7330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137537632"/>
+        <c:crossAx val="-1162040288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7398,7 +7365,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="100" noThreeD="1" page="7" val="65"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="100" noThreeD="1" page="7" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7484,8 +7451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B22:F35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B22:F35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B22:F52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B22:F52"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -7495,10 +7462,10 @@
     </tableColumn>
     <tableColumn id="1" name="ACTIVITY" dataDxfId="3"/>
     <tableColumn id="2" name="START" dataDxfId="2">
-      <calculatedColumnFormula>D22+10</calculatedColumnFormula>
+      <calculatedColumnFormula>D20</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="END" dataDxfId="1">
-      <calculatedColumnFormula>Activities[[#This Row],[START]]+2</calculatedColumnFormula>
+      <calculatedColumnFormula>Activities[[#This Row],[START]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="NOTES" dataDxfId="0"/>
   </tableColumns>
@@ -7742,10 +7709,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7762,8 +7729,8 @@
     <row r="1" spans="1:7" s="7" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
+      <c r="C1" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7786,10 +7753,10 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15">
         <f>DATE(2014, 5, 9)</f>
         <v>41768</v>
       </c>
@@ -7821,221 +7788,553 @@
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
-        <f t="shared" ref="B23:B28" si="0">N(B22)+1</f>
+        <f>N(B22)+1</f>
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="15">
-        <f>DATE(2014, 5, 9)</f>
+      <c r="D23" s="19">
+        <f t="shared" ref="D23" si="0">D20</f>
         <v>41768</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="19">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41768</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
-        <f t="shared" si="0"/>
+        <f>N(B23)+1</f>
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="15">
-        <f>DATE(2014, 5, 13)</f>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D23+4</f>
         <v>41772</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="19">
         <f>Activities[[#This Row],[START]]</f>
         <v>41772</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
-        <f t="shared" si="0"/>
+        <f>N(B24)+1</f>
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="15">
-        <f>DATE(2014, 5, 20)</f>
+      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="19">
+        <f>D24+7</f>
         <v>41779</v>
       </c>
-      <c r="E25" s="15">
-        <f>Activities[[#This Row],[START]]+3</f>
+      <c r="E25" s="19">
+        <f>D25+3</f>
         <v>41782</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
-        <f t="shared" si="0"/>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26:B37" si="1">N(B25)+1</f>
         <v>4</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="15">
-        <f>DATE(2014, 5, 26)</f>
+      <c r="C26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="18">
+        <f>D25+2</f>
+        <v>41781</v>
+      </c>
+      <c r="E26" s="19">
+        <f>D26+5</f>
+        <v>41786</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="18">
+        <f>D26+4</f>
         <v>41785</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="19">
         <f>Activities[[#This Row],[START]]</f>
         <v>41785</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="15">
-        <f>DATE(2014, 5, 22)</f>
-        <v>41781</v>
-      </c>
-      <c r="E27" s="15">
-        <f>DATE(2014, 5, 27)</f>
-        <v>41786</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12">
-        <f t="shared" si="0"/>
+      <c r="B28" s="8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="15">
-        <f>DATE(2014, 5, 26)</f>
+      <c r="C28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="18">
+        <f>D27</f>
         <v>41785</v>
       </c>
-      <c r="E28" s="15">
-        <f>DATE(2014, 6, 27)</f>
+      <c r="E28" s="19">
+        <f>D28+32</f>
         <v>41817</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
-        <f t="shared" ref="B29:B33" si="1">N(B28)+1</f>
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="15">
-        <f>DATE(2014,5,28)</f>
+      <c r="C29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="18">
+        <f>D28+2</f>
         <v>41787</v>
       </c>
-      <c r="E29" s="15">
-        <f>Activities[[#This Row],[START]]+14</f>
+      <c r="E29" s="19">
+        <f>D29+14</f>
         <v>41801</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
+      <c r="B30" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="15">
-        <f>E29+1</f>
-        <v>41802</v>
-      </c>
-      <c r="E30" s="15">
-        <f>Activities[[#This Row],[START]] + 7</f>
-        <v>41809</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="C30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="18">
+        <f>D29+2</f>
+        <v>41789</v>
+      </c>
+      <c r="E30" s="19">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41789</v>
+      </c>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
+      <c r="B31" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="15">
-        <f>E30+1</f>
-        <v>41810</v>
-      </c>
-      <c r="E31" s="15">
-        <f>Activities[[#This Row],[START]]+10</f>
-        <v>41820</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="C31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="18">
+        <f>D30+7</f>
+        <v>41796</v>
+      </c>
+      <c r="E31" s="19">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41796</v>
+      </c>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
+      <c r="B32" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
+      <c r="C32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="18">
+        <f>D31+14</f>
+        <v>41810</v>
+      </c>
+      <c r="E32" s="19">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41810</v>
+      </c>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
+      <c r="B33" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
+      <c r="C33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="18">
+        <f>D32+14</f>
+        <v>41824</v>
+      </c>
+      <c r="E33" s="19">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41824</v>
+      </c>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="16">
-        <f>N(B33)+1</f>
+      <c r="B34" s="8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="15">
-        <f>DATE(2014,10,20)</f>
-        <v>41932</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="18">
+        <f>D33</f>
+        <v>41824</v>
+      </c>
+      <c r="E34" s="19">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41824</v>
+      </c>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
-        <f>N(B34)+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="20"/>
+      <c r="C35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="18">
+        <f>D34+3</f>
+        <v>41827</v>
+      </c>
+      <c r="E35" s="19">
+        <f>D35+7</f>
+        <v>41834</v>
+      </c>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="18">
+        <f>D35+11</f>
+        <v>41838</v>
+      </c>
+      <c r="E36" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41838</v>
+      </c>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="18">
+        <f>D36+1</f>
+        <v>41839</v>
+      </c>
+      <c r="E37" s="18">
+        <f>D37+10</f>
+        <v>41849</v>
+      </c>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <f t="shared" ref="B38" si="2">N(B37)+1</f>
+        <v>16</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="18">
+        <f>D37+2</f>
+        <v>41841</v>
+      </c>
+      <c r="E38" s="18">
+        <f>D38+4</f>
+        <v>41845</v>
+      </c>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8">
+        <f>N(B38)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="18">
+        <f>D38+11</f>
+        <v>41852</v>
+      </c>
+      <c r="E39" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41852</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
+        <f>N(B39)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="18">
+        <f>D39+1</f>
+        <v>41853</v>
+      </c>
+      <c r="E40" s="18">
+        <f>D40 + 14</f>
+        <v>41867</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8">
+        <f>N(B38)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="18">
+        <f>D38+13</f>
+        <v>41854</v>
+      </c>
+      <c r="E41" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41854</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8">
+        <f>N(B41)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="18">
+        <f>D41+13</f>
+        <v>41867</v>
+      </c>
+      <c r="E42" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41867</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8">
+        <f>N(B41)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="18">
+        <f>D41+14</f>
+        <v>41868</v>
+      </c>
+      <c r="E43" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41868</v>
+      </c>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8">
+        <f>N(B43)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="18">
+        <f>D43+13</f>
+        <v>41881</v>
+      </c>
+      <c r="E44" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41881</v>
+      </c>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8">
+        <f>N(B43)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="18">
+        <f>D43+14</f>
+        <v>41882</v>
+      </c>
+      <c r="E45" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41882</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8">
+        <f>N(B45)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="18">
+        <f>D45+13</f>
+        <v>41895</v>
+      </c>
+      <c r="E46" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41895</v>
+      </c>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <f>N(B45)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="18">
+        <f>D45+13</f>
+        <v>41895</v>
+      </c>
+      <c r="E47" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41895</v>
+      </c>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="8">
+        <f>N(B47)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="18">
+        <f>D45 + 14</f>
+        <v>41896</v>
+      </c>
+      <c r="E48" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41896</v>
+      </c>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8">
+        <f>N(B48)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="18">
+        <f>D47+ 14</f>
+        <v>41909</v>
+      </c>
+      <c r="E49" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41909</v>
+      </c>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="8">
+        <f>N(B49)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="18">
+        <f>D48+14</f>
+        <v>41910</v>
+      </c>
+      <c r="E50" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41910</v>
+      </c>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="8">
+        <f>N(B48)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="18">
+        <f>D46+28</f>
+        <v>41923</v>
+      </c>
+      <c r="E51" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41923</v>
+      </c>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="8">
+        <f>N(B51)+1</f>
+        <v>23</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="18">
+        <f>DATE(2014, 10, 20)</f>
+        <v>41932</v>
+      </c>
+      <c r="E52" s="18">
+        <f>Activities[[#This Row],[START]]</f>
+        <v>41932</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="13"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="17"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8110,7 +8409,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41785</v>
+        <v>41786</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8143,7 +8442,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8162,7 +8461,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8191,95 +8490,95 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
-      <c r="E15" t="e">
+      <c r="E15">
         <f t="array" ref="E15">INDEX(Activities[Id],MATCH(1, ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" t="e">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
-      <c r="E16" t="e">
+      <c r="E16">
         <f t="array" ref="E16">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F16" t="e">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
-      <c r="E17" t="e">
+      <c r="E17">
         <f t="array" ref="E17">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" t="e">
+        <v>3</v>
+      </c>
+      <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E18" t="e">
+      <c r="E18">
         <f t="array" ref="E18">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
+        <v>4</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E19" t="e">
+      <c r="E19">
         <f t="array" ref="E19">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="e">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E20" t="e">
+      <c r="E20">
         <f t="array" ref="E20">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="e">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E21" t="e">
+      <c r="E21">
         <f t="array" ref="E21">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E20)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="e">
+        <v>7</v>
+      </c>
+      <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E22" t="e">
+      <c r="E22">
         <f t="array" ref="E22">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E21)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" t="e">
+        <v>8</v>
+      </c>
+      <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E23" t="e">
+      <c r="E23">
         <f t="array" ref="E23">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E22)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" t="e">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -8288,7 +8587,7 @@
       </c>
       <c r="D25" s="1">
         <f>StartDate+WindowOffset</f>
-        <v>41833</v>
+        <v>41768</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -8296,7 +8595,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
@@ -8331,127 +8630,127 @@
       </c>
       <c r="E31" s="1">
         <f>StartDateWindow</f>
-        <v>41833</v>
+        <v>41768</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>41834</v>
+        <v>41769</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>41835</v>
+        <v>41770</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>41836</v>
+        <v>41771</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>41837</v>
+        <v>41772</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>41838</v>
+        <v>41773</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>41839</v>
+        <v>41774</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>41840</v>
+        <v>41775</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>41841</v>
+        <v>41776</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>41842</v>
+        <v>41777</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>41843</v>
+        <v>41778</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>41844</v>
+        <v>41779</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>41845</v>
+        <v>41780</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>41846</v>
+        <v>41781</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>41847</v>
+        <v>41782</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>41848</v>
+        <v>41783</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>41849</v>
+        <v>41784</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>41850</v>
+        <v>41785</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>41851</v>
+        <v>41786</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>41852</v>
+        <v>41787</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>41853</v>
+        <v>41788</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>41854</v>
+        <v>41789</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>41855</v>
+        <v>41790</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>41856</v>
+        <v>41791</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>41857</v>
+        <v>41792</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>41858</v>
+        <v>41793</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>41859</v>
+        <v>41794</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>41860</v>
+        <v>41795</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>41861</v>
+        <v>41796</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>41862</v>
+        <v>41797</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>41863</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -8461,17 +8760,17 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="e">
+      <c r="C32">
         <f t="shared" ref="C32:C40" ca="1" si="2">F15</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C32,Activities[Id],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+        <v>Project Start</v>
+      </c>
+      <c r="E32">
+        <f ca="1">GridCalc</f>
+        <v>11.3</v>
       </c>
       <c r="F32" t="e">
         <f ca="1">GridCalc</f>
@@ -8602,13 +8901,13 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" t="e">
+      <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C33,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>Client Meeeting 1</v>
       </c>
       <c r="E33" t="e">
         <f ca="1">GridCalc</f>
@@ -8626,9 +8925,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="I33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="I33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
       </c>
       <c r="J33" t="e">
         <f ca="1">GridCalc</f>
@@ -8743,13 +9042,13 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="e">
+      <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="e">
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C34,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>Requirement Integration</v>
       </c>
       <c r="E34" t="e">
         <f ca="1">GridCalc</f>
@@ -8795,21 +9094,21 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R34" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S34" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="P34">
+        <f ca="1">GridCalc</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q34">
+        <f ca="1">GridCalc</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R34">
+        <f ca="1">GridCalc</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S34">
+        <f ca="1">GridCalc</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T34" t="e">
         <f ca="1">GridCalc</f>
@@ -8884,13 +9183,13 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" t="e">
+      <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
+        <v>4</v>
+      </c>
+      <c r="D35" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C35,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>Project Timeline Compilation</v>
       </c>
       <c r="E35" t="e">
         <f ca="1">GridCalc</f>
@@ -8944,29 +9243,29 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="R35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="R35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="X35" t="e">
         <f ca="1">GridCalc</f>
@@ -9025,13 +9324,13 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" t="e">
+      <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="e">
+        <v>5</v>
+      </c>
+      <c r="D36" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C36,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>First Demo Session</v>
       </c>
       <c r="E36" t="e">
         <f ca="1">GridCalc</f>
@@ -9101,9 +9400,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="V36" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="V36">
+        <f ca="1">GridCalc</f>
+        <v>7.3000000000000007</v>
       </c>
       <c r="W36" t="e">
         <f ca="1">GridCalc</f>
@@ -9166,13 +9465,13 @@
       <c r="B37">
         <v>6</v>
       </c>
-      <c r="C37" t="e">
+      <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" t="e">
+        <v>6</v>
+      </c>
+      <c r="D37" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C37,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>Requirement Re-do</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">GridCalc</f>
@@ -9242,61 +9541,61 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="V37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="V37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="W37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="X37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="Y37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="Z37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AA37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AB37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AC37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AD37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AE37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AF37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AG37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AH37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="AI37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -9307,13 +9606,13 @@
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38" t="e">
+      <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" t="e">
+        <v>7</v>
+      </c>
+      <c r="D38" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C38,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>System Prototype &amp; DB Design</v>
       </c>
       <c r="E38" t="e">
         <f ca="1">GridCalc</f>
@@ -9391,53 +9690,53 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="X38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="X38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="Y38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="Z38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AA38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AB38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AC38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AD38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AE38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AF38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AG38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AH38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="AI38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
@@ -9448,13 +9747,13 @@
       <c r="B39">
         <v>8</v>
       </c>
-      <c r="C39" t="e">
+      <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" t="e">
+        <v>8</v>
+      </c>
+      <c r="D39" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C39,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>Progress Report 1</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">GridCalc</f>
@@ -9540,9 +9839,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="Z39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="Z39">
+        <f ca="1">GridCalc</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="AA39" t="e">
         <f ca="1">GridCalc</f>
@@ -9589,13 +9888,13 @@
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40" t="e">
+      <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" t="e">
+        <v>9</v>
+      </c>
+      <c r="D40" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C40,Activities[Id],0))</f>
-        <v>#N/A</v>
+        <v>Meet Stacey 1</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">GridCalc</f>
@@ -9709,9 +10008,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="AG40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="AG40">
+        <f ca="1">GridCalc</f>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AH40" t="e">
         <f ca="1">GridCalc</f>
@@ -9725,137 +10024,137 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>41833</v>
+        <v>41768</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>41834</v>
+        <v>41769</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>41835</v>
+        <v>41770</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>41836</v>
+        <v>41771</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>41837</v>
+        <v>41772</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>41838</v>
+        <v>41773</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>41839</v>
+        <v>41774</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>41840</v>
+        <v>41775</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>41841</v>
+        <v>41776</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>41842</v>
+        <v>41777</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>41843</v>
+        <v>41778</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>41844</v>
+        <v>41779</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>41845</v>
+        <v>41780</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>41846</v>
+        <v>41781</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>41847</v>
+        <v>41782</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>41848</v>
+        <v>41783</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>41849</v>
+        <v>41784</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>41850</v>
+        <v>41785</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>41851</v>
+        <v>41786</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>41852</v>
+        <v>41787</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>41853</v>
+        <v>41788</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>41854</v>
+        <v>41789</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>41855</v>
+        <v>41790</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>41856</v>
+        <v>41791</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>41857</v>
+        <v>41792</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>41858</v>
+        <v>41793</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>41859</v>
+        <v>41794</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>41860</v>
+        <v>41795</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>41861</v>
+        <v>41796</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>41862</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C44" t="e">
+      <c r="C44">
         <f ca="1">C32</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="e">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C44,Activities[Id],0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" t="e">
+        <v>PROJECT START</v>
+      </c>
+      <c r="E44">
         <f t="shared" ref="E44:AH44" ca="1" si="5">IF(ISERROR(F32),E32,NA())</f>
-        <v>#N/A</v>
+        <v>11.3</v>
       </c>
       <c r="F44" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -9975,13 +10274,13 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C45" t="e">
+      <c r="C45">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" t="e">
+        <v>2</v>
+      </c>
+      <c r="D45" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C45,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>CLIENT MEEETING 1</v>
       </c>
       <c r="E45" t="e">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
@@ -9999,9 +10298,9 @@
         <f t="shared" ca="1" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="I45" t="e">
+      <c r="I45">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
+        <v>10.3</v>
       </c>
       <c r="J45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10105,13 +10404,13 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C46" t="e">
+      <c r="C46">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" t="e">
+        <v>3</v>
+      </c>
+      <c r="D46" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C46,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>REQUIREMENT INTEGRATION</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
@@ -10169,9 +10468,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="S46" t="e">
+      <c r="S46">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10235,13 +10534,13 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C47" t="e">
+      <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" t="e">
+        <v>4</v>
+      </c>
+      <c r="D47" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C47,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>PROJECT TIMELINE COMPILATION</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10315,9 +10614,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="W47" t="e">
+      <c r="W47">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="X47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10365,13 +10664,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C48" t="e">
+      <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" t="e">
+        <v>5</v>
+      </c>
+      <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C48,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>FIRST DEMO SESSION</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -10441,9 +10740,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="V48" t="e">
+      <c r="V48">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="W48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10495,13 +10794,13 @@
       </c>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C49" t="e">
+      <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
+        <v>6</v>
+      </c>
+      <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C49,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>REQUIREMENT RE-DO</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -10625,13 +10924,13 @@
       </c>
     </row>
     <row r="50" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C50" t="e">
+      <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
+        <v>7</v>
+      </c>
+      <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C50,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>SYSTEM PROTOTYPE &amp; DB DESIGN</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -10755,13 +11054,13 @@
       </c>
     </row>
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C51" t="e">
+      <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
+        <v>8</v>
+      </c>
+      <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C51,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>PROGRESS REPORT 1</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -10847,9 +11146,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Z51" t="e">
+      <c r="Z51">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="AA51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -10885,13 +11184,13 @@
       </c>
     </row>
     <row r="52" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C52" t="e">
+      <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
+        <v>9</v>
+      </c>
+      <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C52,Activities[Id],0)))</f>
-        <v>#N/A</v>
+        <v>MEET STACEY 1</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11005,9 +11304,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="AG52" t="e">
+      <c r="AG52">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AH52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11017,123 +11316,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>41833</v>
+        <v>41768</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>41834</v>
+        <v>41769</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>41835</v>
+        <v>41770</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>41836</v>
+        <v>41771</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>41837</v>
+        <v>41772</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>41838</v>
+        <v>41773</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>41839</v>
+        <v>41774</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>41840</v>
+        <v>41775</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>41841</v>
+        <v>41776</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>41842</v>
+        <v>41777</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>41843</v>
+        <v>41778</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>41844</v>
+        <v>41779</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>41845</v>
+        <v>41780</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>41846</v>
+        <v>41781</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>41847</v>
+        <v>41782</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>41848</v>
+        <v>41783</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>41849</v>
+        <v>41784</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>41850</v>
+        <v>41785</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>41851</v>
+        <v>41786</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>41852</v>
+        <v>41787</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>41853</v>
+        <v>41788</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>41854</v>
+        <v>41789</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>41855</v>
+        <v>41790</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>41856</v>
+        <v>41791</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>41857</v>
+        <v>41792</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>41858</v>
+        <v>41793</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>41859</v>
+        <v>41794</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>41860</v>
+        <v>41795</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>41861</v>
+        <v>41796</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>41862</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
@@ -11212,9 +11511,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="W56" t="e">
+      <c r="W56">
         <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="X56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11264,7 +11563,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D58" s="3">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>41821</v>
+        <v>41760</v>
       </c>
       <c r="E58">
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11342,21 +11641,21 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="X58" t="e">
+      <c r="X58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Y58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Z58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AA58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AB58" t="e">
         <f t="shared" si="17"/>
@@ -11390,7 +11689,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="str">
         <f>TEXT(D58,"mmm yyyy") &amp; " - Top Band"</f>
-        <v>Jul 2014 - Top Band</v>
+        <v>May 2014 - Top Band</v>
       </c>
       <c r="E59">
         <f>E58+12.5</f>
@@ -11468,21 +11767,21 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="X59" t="e">
+      <c r="X59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y59" t="e">
+        <v>13</v>
+      </c>
+      <c r="Y59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z59" t="e">
+        <v>13</v>
+      </c>
+      <c r="Z59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA59" t="e">
+        <v>13</v>
+      </c>
+      <c r="AA59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AB59" t="e">
         <f t="shared" si="18"/>
@@ -11519,7 +11818,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D61" s="3">
         <f>EOMONTH(D58,0)+1</f>
-        <v>41852</v>
+        <v>41791</v>
       </c>
       <c r="E61" t="e">
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -11597,21 +11896,21 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="X61">
+      <c r="X61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y61">
+        <v>#N/A</v>
+      </c>
+      <c r="Y61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z61">
+        <v>#N/A</v>
+      </c>
+      <c r="Z61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AA61">
+        <v>#N/A</v>
+      </c>
+      <c r="AA61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB61">
         <f t="shared" si="19"/>
@@ -11645,7 +11944,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="str">
         <f>TEXT(D61,"mmm yyyy") &amp; " - Top Band"</f>
-        <v>Aug 2014 - Top Band</v>
+        <v>Jun 2014 - Top Band</v>
       </c>
       <c r="E62" t="e">
         <f>E61+12.5</f>
@@ -11723,21 +12022,21 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="X62">
+      <c r="X62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="Y62">
+        <v>#N/A</v>
+      </c>
+      <c r="Y62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="Z62">
+        <v>#N/A</v>
+      </c>
+      <c r="Z62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AA62">
+        <v>#N/A</v>
+      </c>
+      <c r="AA62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AB62">
         <f t="shared" si="20"/>
@@ -11774,7 +12073,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D65" s="3">
         <f>D58+1</f>
-        <v>41822</v>
+        <v>41761</v>
       </c>
       <c r="E65" t="e">
         <f>IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -11900,7 +12199,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D66" s="3">
         <f>D61+1</f>
-        <v>41853</v>
+        <v>41792</v>
       </c>
       <c r="E66" t="e">
         <f>IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -11982,25 +12281,25 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC66">
         <f t="shared" si="21"/>
         <v>0.5</v>
-      </c>
-      <c r="Z66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
       </c>
       <c r="AD66" t="e">
         <f t="shared" si="21"/>
@@ -12150,123 +12449,123 @@
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>SUN</v>
+        <v>FRI</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>MON</v>
+        <v>SAT</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>SUN</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>MON</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>TUE</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>WED</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>THU</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>FRI</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>SAT</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>SUN</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>MON</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>TUE</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>WED</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>THU</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>FRI</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>SAT</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>SUN</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>MON</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>TUE</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>WED</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>THU</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>FRI</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>SAT</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>SUN</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>MON</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>TUE</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>WED</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>THU</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>FRI</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>SAT</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.2">
@@ -12393,123 +12692,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>13</v>
+        <v>09</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>28</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>29</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>30</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>31</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>01</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>03</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>04</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>05</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>06</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>07</v>
       </c>
     </row>
   </sheetData>

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -544,94 +544,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41810</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41813</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41816</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41817</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,7 +643,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -746,7 +746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROJECT START</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -795,7 +795,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -935,94 +935,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41810</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41813</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41816</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41817</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1046,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1137,7 +1137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CLIENT MEEETING 1</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1198,7 +1198,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1326,94 +1326,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41810</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41813</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41816</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41817</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,16 +1458,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -1528,7 +1528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REQUIREMENT INTEGRATION</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,7 +1622,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -1720,94 +1720,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41810</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41813</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41816</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41817</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,22 +1858,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1922,7 +1922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROJECT TIMELINE COMPILATION</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2025,7 +2025,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -2111,94 +2111,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>41768</c:v>
+                  <c:v>41792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41769</c:v>
+                  <c:v>41793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41770</c:v>
+                  <c:v>41794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>41795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41772</c:v>
+                  <c:v>41796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41773</c:v>
+                  <c:v>41797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41774</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41775</c:v>
+                  <c:v>41799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41776</c:v>
+                  <c:v>41800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41777</c:v>
+                  <c:v>41801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41778</c:v>
+                  <c:v>41802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41779</c:v>
+                  <c:v>41803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41780</c:v>
+                  <c:v>41804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41781</c:v>
+                  <c:v>41805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41782</c:v>
+                  <c:v>41806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41783</c:v>
+                  <c:v>41807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41784</c:v>
+                  <c:v>41808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41785</c:v>
+                  <c:v>41809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41786</c:v>
+                  <c:v>41810</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41787</c:v>
+                  <c:v>41811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41788</c:v>
+                  <c:v>41812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41789</c:v>
+                  <c:v>41813</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41790</c:v>
+                  <c:v>41814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41791</c:v>
+                  <c:v>41815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41792</c:v>
+                  <c:v>41816</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41793</c:v>
+                  <c:v>41817</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41794</c:v>
+                  <c:v>41818</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41795</c:v>
+                  <c:v>41819</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41796</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41797</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +2261,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2313,7 +2313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FIRST DEMO SESSION</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2413,7 +2413,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -2502,55 +2502,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.3000000000000007</c:v>
@@ -2580,16 +2580,16 @@
                   <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,6 +2642,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2728,7 +2729,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>#N/A</c:v>
@@ -2793,34 +2794,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -2850,37 +2851,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,6 +2934,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2971,7 +2973,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3096,7 +3098,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3147,7 +3149,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3187,7 +3189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROGRESS REPORT 1</c:v>
+                  <c:v>MEET STACEY 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3251,7 +3253,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3302,7 +3304,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3433,7 +3435,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3463,7 +3465,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3482,7 +3484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MEET STACEY 1</c:v>
+                  <c:v>CLIENT MEEETING 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3585,7 +3587,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3615,7 +3617,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3711,16 +3713,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -3760,7 +3762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>May 2014</c:v>
+                  <c:v>Jun 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3851,22 +3853,22 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -3885,7 +3887,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jun 2014</c:v>
+                  <c:v>Jul 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3976,22 +3978,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.5</c:v>
@@ -4010,7 +4012,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jun 2014</c:v>
+                  <c:v>Jul 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4134,7 +4136,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4165,7 +4167,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>May 2014</c:v>
+                  <c:v>Jun 2014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4215,6 +4217,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4226,7 +4229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -4355,6 +4358,286 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>02</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A69B0784-BACA-4B63-BFFD-6F87800161D7}</c15:txfldGUID>
+                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>02</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>03</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{25FC88C5-B89E-42D2-961A-42F6F99B5573}</c15:txfldGUID>
+                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>03</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>04</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{C6169375-BB7A-45D4-BF55-686A677BF6C3}</c15:txfldGUID>
+                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>04</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>05</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{7604F51A-5339-429A-AFE9-957E39E42BFB}</c15:txfldGUID>
+                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>05</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>06</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{817222B8-3E94-4FE0-A70C-A219557F1AB1}</c15:txfldGUID>
+                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>06</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>07</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{3DC3C20D-0A59-4F0B-A879-D69AA0C509F6}</c15:txfldGUID>
+                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>07</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>08</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A94B561E-DE5D-45CD-9EFC-88D47908B33F}</c15:txfldGUID>
+                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>08</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>09</c:v>
                     </c:pt>
                   </c:strCache>
@@ -4372,8 +4655,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{846BBF51-6092-4FF2-AE8C-9C9ADB4BC1BD}</c15:txfldGUID>
-                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:txfldGUID>{02619006-D766-4A96-A3E4-72BA6573D90F}</c15:txfldGUID>
+                      <c15:f>calcs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4387,11 +4670,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$72</c:f>
+                  <c:f>calcs!$M$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4412,8 +4695,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0F357F5F-DD47-4C3D-9F12-B07B33FBDBCF}</c15:txfldGUID>
-                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:txfldGUID>{07367C99-EB99-4571-A17A-07D76B2AD155}</c15:txfldGUID>
+                      <c15:f>calcs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4427,11 +4710,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$72</c:f>
+                  <c:f>calcs!$N$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4452,8 +4735,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E00F725E-B58E-4AA8-AA70-CC1A5B4CB2CF}</c15:txfldGUID>
-                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:txfldGUID>{FF86DA23-A5E6-45AB-85D0-F7B5DF75F4A0}</c15:txfldGUID>
+                      <c15:f>calcs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4467,11 +4750,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$72</c:f>
+                  <c:f>calcs!$O$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4492,8 +4775,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FD40B7DC-ECFF-45E3-954E-F9DCDE7F48C7}</c15:txfldGUID>
-                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:txfldGUID>{E1743F94-7402-42CD-B1D9-B48AA9A2A444}</c15:txfldGUID>
+                      <c15:f>calcs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4507,11 +4790,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$72</c:f>
+                  <c:f>calcs!$P$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4532,8 +4815,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6A9A1CAF-372C-4270-BD85-88BA274E7BF0}</c15:txfldGUID>
-                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:txfldGUID>{F355E47E-5BBF-40C0-907B-F37F34022653}</c15:txfldGUID>
+                      <c15:f>calcs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4547,11 +4830,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$72</c:f>
+                  <c:f>calcs!$Q$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4572,8 +4855,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0CAC109A-6368-41BF-90B9-D80164001B97}</c15:txfldGUID>
-                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:txfldGUID>{4DC02B7D-5D28-431C-A58B-620251B22DF5}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4587,11 +4870,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$72</c:f>
+                  <c:f>calcs!$R$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4612,8 +4895,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ED3EA9AE-CC64-4D11-83FE-1C0EFD3FC5E2}</c15:txfldGUID>
-                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:txfldGUID>{F21492C6-8C08-4E17-A347-B5C0934FDDBF}</c15:txfldGUID>
+                      <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4627,11 +4910,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$72</c:f>
+                  <c:f>calcs!$S$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4652,8 +4935,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{956273C8-5498-4FEC-A97E-81CF58814EE1}</c15:txfldGUID>
-                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:txfldGUID>{30399888-43DB-43FF-9785-F2D910249363}</c15:txfldGUID>
+                      <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4667,11 +4950,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$72</c:f>
+                  <c:f>calcs!$T$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4692,8 +4975,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FE930E27-D146-46DD-B687-F1586CCE2069}</c15:txfldGUID>
-                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:txfldGUID>{1CD36396-ADDF-4712-9643-02658BFA58FF}</c15:txfldGUID>
+                      <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4707,11 +4990,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$72</c:f>
+                  <c:f>calcs!$U$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4732,8 +5015,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{64D62AD7-ECD1-461E-9024-29DB640303EC}</c15:txfldGUID>
-                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:txfldGUID>{1A0FCBEF-9692-4121-AB55-5512BBF70E24}</c15:txfldGUID>
+                      <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4747,11 +5030,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$72</c:f>
+                  <c:f>calcs!$V$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4772,8 +5055,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C3340FD-4E50-4BB9-AF07-90E78BC842F8}</c15:txfldGUID>
-                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:txfldGUID>{654D77D5-C597-4B10-85A6-9598B5DEA86C}</c15:txfldGUID>
+                      <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4787,11 +5070,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$72</c:f>
+                  <c:f>calcs!$W$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4812,8 +5095,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2DE6A4C8-9FC0-49A0-8485-300DC8216220}</c15:txfldGUID>
-                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:txfldGUID>{DCDF94C9-20DD-40FF-8B13-62F592C2717A}</c15:txfldGUID>
+                      <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4827,11 +5110,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$72</c:f>
+                  <c:f>calcs!$X$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4852,8 +5135,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{642191DA-86D3-40A9-8EC2-338AAF7EC3C2}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:txfldGUID>{72F13DA9-FD92-4401-8DF3-031E6195A5C5}</c15:txfldGUID>
+                      <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4867,11 +5150,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$72</c:f>
+                  <c:f>calcs!$Y$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4892,8 +5175,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AB9FAF00-D58C-46B7-8662-F5FB54B11345}</c15:txfldGUID>
-                      <c15:f>calcs!$R$72</c15:f>
+                      <c15:txfldGUID>{B1181CB5-DFEC-43F1-8990-C7D826214E40}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4907,11 +5190,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$72</c:f>
+                  <c:f>calcs!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4932,8 +5215,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E0ADC80-A88A-496C-9A31-F9AD958CC982}</c15:txfldGUID>
-                      <c15:f>calcs!$S$72</c15:f>
+                      <c15:txfldGUID>{B6A4C060-9D0B-453D-8FC5-C0E418A70F07}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4947,11 +5230,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$72</c:f>
+                  <c:f>calcs!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4972,8 +5255,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{343B068A-7ECE-45DB-802C-3B5E4E761F12}</c15:txfldGUID>
-                      <c15:f>calcs!$T$72</c15:f>
+                      <c15:txfldGUID>{A5833E45-94A3-46F4-9A7D-DD00132EC06C}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4987,11 +5270,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$72</c:f>
+                  <c:f>calcs!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5012,8 +5295,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BFFB38D6-680D-465C-BCFF-9D39896FE990}</c15:txfldGUID>
-                      <c15:f>calcs!$U$72</c15:f>
+                      <c15:txfldGUID>{6E534C36-C36D-4815-9BF3-6C314C9A51F0}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5027,11 +5310,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$72</c:f>
+                  <c:f>calcs!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5052,8 +5335,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{56DB8571-037D-4868-8C9E-B253210ECB69}</c15:txfldGUID>
-                      <c15:f>calcs!$V$72</c15:f>
+                      <c15:txfldGUID>{8FD30B99-B0EE-4F83-B7C2-A4D4F10DF822}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5067,11 +5350,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$72</c:f>
+                  <c:f>calcs!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5092,8 +5375,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E8501C27-B444-493A-8240-262332ADB36F}</c15:txfldGUID>
-                      <c15:f>calcs!$W$72</c15:f>
+                      <c15:txfldGUID>{2946764C-56D2-4555-9633-2BC471A06AFF}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5107,11 +5390,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$72</c:f>
+                  <c:f>calcs!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5132,8 +5415,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5940F431-F872-4511-9B19-EA872535B649}</c15:txfldGUID>
-                      <c15:f>calcs!$X$72</c15:f>
+                      <c15:txfldGUID>{6F2531CF-AA15-4497-8CFA-C162077DDFC9}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5147,11 +5430,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$72</c:f>
+                  <c:f>calcs!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5172,8 +5455,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8D09A6DC-C2B9-48C9-919A-743BD6962E68}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$72</c15:f>
+                      <c15:txfldGUID>{B04F9807-610D-479E-86C6-01C10E180488}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5187,11 +5470,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$72</c:f>
+                  <c:f>calcs!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5212,8 +5495,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF9BFCB0-0F4D-4C55-BBE1-D9A4BC7BFD39}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$72</c15:f>
+                      <c15:txfldGUID>{0325B1AE-440C-4B27-93C1-8063FAA445A0}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5227,51 +5510,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>31</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F50508F2-B207-4470-BA60-3FF1C7C2EEE6}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>31</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AB$72</c:f>
+                  <c:f>calcs!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5292,252 +5535,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A8BD1219-3F3A-4CDA-B107-43EFAA7BCFC6}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$72</c15:f>
+                      <c15:txfldGUID>{A7265333-2A36-474A-B4E2-7512BC3B5535}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>01</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>02</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5BE96B9F-44BD-454E-A2F4-254F5EABDA07}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>02</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>03</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{58E3CC4F-474B-4E60-B24E-2E66520AC334}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>03</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>04</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C71C1A24-09F9-4506-846E-259E2FC405D4}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>04</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>05</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{46DE722C-9A7D-4DEE-8C11-359B0D5A3270}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>05</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>06</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{96E5DFD6-36A8-49B9-96DB-592FB2620D13}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>06</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>07</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FC020F17-91D3-4EB4-A982-7A1A4CE6A76D}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>07</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5702,6 +5705,166 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
+                      <c:v>MON</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{6A34268A-D6D4-4051-B883-A56EBDDEF6E8}</c15:txfldGUID>
+                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>MON</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>TUE</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{404F0F18-DD33-4C46-90B7-C59BDA6FDFC9}</c15:txfldGUID>
+                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>TUE</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>WED</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{2E860930-6FBB-4902-B0E3-B44850F1429D}</c15:txfldGUID>
+                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>WED</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>THU</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5FC46739-AC0A-4D2C-9BF6-087C49AB2653}</c15:txfldGUID>
+                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>THU</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
                       <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
@@ -5719,8 +5882,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{366D6F43-709F-4FAC-BB8A-69B5399E99AD}</c15:txfldGUID>
-                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:txfldGUID>{21534D75-D820-4ADA-8732-72C1E2DA7434}</c15:txfldGUID>
+                      <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5734,11 +5897,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="5"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$70</c:f>
+                  <c:f>calcs!$J$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5759,8 +5922,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{06A59490-41EC-47A3-B217-7A09D43A8E43}</c15:txfldGUID>
-                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:txfldGUID>{6BC25874-5494-4B70-90A2-A14E9A5B4BD2}</c15:txfldGUID>
+                      <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5774,11 +5937,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="6"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$70</c:f>
+                  <c:f>calcs!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5799,8 +5962,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8F841929-01E8-41C3-92E1-9617AEF5A62F}</c15:txfldGUID>
-                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:txfldGUID>{AF79E848-0F66-41E4-AFA0-F31F767B1E4A}</c15:txfldGUID>
+                      <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5814,11 +5977,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="7"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$70</c:f>
+                  <c:f>calcs!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5839,8 +6002,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{74126369-6137-4770-97A5-F869D7AB4E8F}</c15:txfldGUID>
-                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:txfldGUID>{6671D9DB-A03C-42FF-9229-4F929370501A}</c15:txfldGUID>
+                      <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5854,11 +6017,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="8"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$70</c:f>
+                  <c:f>calcs!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5879,8 +6042,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3333549-E675-4FF2-8D86-27B6FF6086A1}</c15:txfldGUID>
-                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:txfldGUID>{8D74D422-F096-4716-B2B0-26931C6C556B}</c15:txfldGUID>
+                      <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5894,11 +6057,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="9"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$70</c:f>
+                  <c:f>calcs!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5919,8 +6082,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{77130B11-C94E-451D-BF56-765D31EA0740}</c15:txfldGUID>
-                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:txfldGUID>{8BDD4305-2037-47E3-AA48-4CC0A9D5E2F4}</c15:txfldGUID>
+                      <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5934,11 +6097,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$70</c:f>
+                  <c:f>calcs!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5959,8 +6122,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C9E1DD54-B3F6-41DD-8B60-6BB8963438E1}</c15:txfldGUID>
-                      <c15:f>calcs!$K$70</c15:f>
+                      <c15:txfldGUID>{D686EF50-4310-4931-A015-947EFCB542FD}</c15:txfldGUID>
+                      <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -5974,11 +6137,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="11"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$70</c:f>
+                  <c:f>calcs!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -5999,8 +6162,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{01006468-7D1D-4105-90C5-0F11115E5D99}</c15:txfldGUID>
-                      <c15:f>calcs!$L$70</c15:f>
+                      <c15:txfldGUID>{D165D2D6-D75D-4FCE-BACC-1CCD5903886C}</c15:txfldGUID>
+                      <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6014,11 +6177,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="12"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$70</c:f>
+                  <c:f>calcs!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6039,8 +6202,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FE02F13E-FAA3-44D3-A2B2-8EBCC198A0A6}</c15:txfldGUID>
-                      <c15:f>calcs!$M$70</c15:f>
+                      <c15:txfldGUID>{876590F1-AA9D-4501-9453-00052F9265CA}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6054,11 +6217,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="13"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$70</c:f>
+                  <c:f>calcs!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6079,8 +6242,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4425405-F23D-4251-8F14-FC8AF524C7C3}</c15:txfldGUID>
-                      <c15:f>calcs!$N$70</c15:f>
+                      <c15:txfldGUID>{81B3E1C4-9330-459A-AB03-BD82F1D80C76}</c15:txfldGUID>
+                      <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6094,11 +6257,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="14"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$70</c:f>
+                  <c:f>calcs!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6119,8 +6282,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{805ADE7C-A108-4BF5-B09F-499FE95C217A}</c15:txfldGUID>
-                      <c15:f>calcs!$O$70</c15:f>
+                      <c15:txfldGUID>{B3716682-7B94-4AF2-8513-BB7BA6B5D523}</c15:txfldGUID>
+                      <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6134,11 +6297,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="15"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$70</c:f>
+                  <c:f>calcs!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6159,8 +6322,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0083A7B4-B100-45EE-9435-A77E4ACEACB7}</c15:txfldGUID>
-                      <c15:f>calcs!$P$70</c15:f>
+                      <c15:txfldGUID>{77EC9DDD-8282-43CB-930A-52243E181BDB}</c15:txfldGUID>
+                      <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6174,11 +6337,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="16"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$70</c:f>
+                  <c:f>calcs!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6199,8 +6362,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1177B5B6-6632-4112-BFDC-F92AC2E602E0}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$70</c15:f>
+                      <c15:txfldGUID>{8FBD6DAB-4C1C-492E-A89F-87707F3C7FC7}</c15:txfldGUID>
+                      <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6214,11 +6377,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="17"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$70</c:f>
+                  <c:f>calcs!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6239,8 +6402,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1C6F05A8-EADC-4D0F-AAD9-68EE4F445644}</c15:txfldGUID>
-                      <c15:f>calcs!$R$70</c15:f>
+                      <c15:txfldGUID>{65281B5B-B098-4D0C-9F99-7098C8BF01AB}</c15:txfldGUID>
+                      <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6254,11 +6417,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="18"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$70</c:f>
+                  <c:f>calcs!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6279,8 +6442,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6F6BF4EB-324B-43F2-ADFC-C660EEF61728}</c15:txfldGUID>
-                      <c15:f>calcs!$S$70</c15:f>
+                      <c15:txfldGUID>{B8B21547-D2D7-4083-B416-5DB4816F4FA6}</c15:txfldGUID>
+                      <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6294,11 +6457,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="19"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$70</c:f>
+                  <c:f>calcs!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6319,8 +6482,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6823F31D-A03A-4C57-B1A1-B60F56EAA208}</c15:txfldGUID>
-                      <c15:f>calcs!$T$70</c15:f>
+                      <c15:txfldGUID>{B99043BE-F852-4FDC-B422-CBB98090895F}</c15:txfldGUID>
+                      <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6334,11 +6497,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="20"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$70</c:f>
+                  <c:f>calcs!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6359,8 +6522,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7A94699D-8AF4-411D-A2B9-08F17E65B3DE}</c15:txfldGUID>
-                      <c15:f>calcs!$U$70</c15:f>
+                      <c15:txfldGUID>{DDBCBE31-B3BD-4215-8619-532CA2E643AE}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6374,11 +6537,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="21"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$70</c:f>
+                  <c:f>calcs!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6399,8 +6562,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D3892B2C-1239-447C-9DDE-3C23C1CEE3D8}</c15:txfldGUID>
-                      <c15:f>calcs!$V$70</c15:f>
+                      <c15:txfldGUID>{1A80989A-7E80-4E1F-8A44-CAD8DB4BEAD2}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6414,11 +6577,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="22"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$70</c:f>
+                  <c:f>calcs!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6439,8 +6602,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CED6AF2E-0CDE-4DA2-BE29-47497EED56F5}</c15:txfldGUID>
-                      <c15:f>calcs!$W$70</c15:f>
+                      <c15:txfldGUID>{5277973E-E542-4EF6-B4B7-D422ECBE8106}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6454,11 +6617,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="23"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$70</c:f>
+                  <c:f>calcs!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6479,8 +6642,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0B752F60-0FD0-4A12-9E79-4F7A700EFECB}</c15:txfldGUID>
-                      <c15:f>calcs!$X$70</c15:f>
+                      <c15:txfldGUID>{BF576D31-2544-4C07-923F-57D388E55513}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6494,11 +6657,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="24"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$70</c:f>
+                  <c:f>calcs!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6519,8 +6682,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6715EBFF-EC46-4909-AD9A-83A8CCBEA36A}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$70</c15:f>
+                      <c15:txfldGUID>{7F0D29E4-7942-42AC-9CCF-C6B9BD8CCDE2}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6534,11 +6697,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="25"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$70</c:f>
+                  <c:f>calcs!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6559,8 +6722,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{10FA6CBF-930D-4D66-B9D5-8BB98D82FF26}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$70</c15:f>
+                      <c15:txfldGUID>{9F7FB60F-DCA9-4E67-AE26-3D16B64B05FE}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6574,11 +6737,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="26"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$70</c:f>
+                  <c:f>calcs!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6599,8 +6762,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E5EF151-17CF-41C0-B663-55CFCC3EAEBF}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$70</c15:f>
+                      <c15:txfldGUID>{C62663CF-66D1-425E-A643-CA99C0EE72DE}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6614,11 +6777,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="27"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$70</c:f>
+                  <c:f>calcs!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6639,8 +6802,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60F352D6-307F-477B-8B7E-D152540F987D}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$70</c15:f>
+                      <c15:txfldGUID>{DB104879-D59F-4F59-95C8-813C33236806}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6654,11 +6817,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="28"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AC$70</c:f>
+                  <c:f>calcs!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6679,8 +6842,8 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6EB43049-1DFF-4DAA-BCF7-F1D237A8C00D}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$70</c15:f>
+                      <c15:txfldGUID>{278DAD93-DCD4-4944-812B-6EE9AD688AA0}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6694,11 +6857,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="25"/>
+              <c:idx val="29"/>
               <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AD$70</c:f>
+                  <c:f>calcs!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6719,172 +6882,12 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{851EA1C6-5529-4D0C-822E-462B9466CC88}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$70</c15:f>
+                      <c15:txfldGUID>{7E2B6F77-A3B7-4649-8F79-7460771B6C4B}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>TUE</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>WED</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{29D8C62A-CCFE-4477-8073-C66EB148CCF0}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>WED</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>THU</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A6D60B30-B2E7-4C6A-A693-188D92A78D53}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>THU</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>FRI</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9F3C9C7C-2C4F-4614-9708-EE117FA57465}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>FRI</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SAT</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AFA56C9E-D3CD-4499-8D97-96B2DD9185C7}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SAT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7033,7 +7036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>May 2014 - Top Band</c:v>
+                  <c:v>Jun 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7124,22 +7127,22 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -7158,7 +7161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jun 2014 - Top Band</c:v>
+                  <c:v>Jul 2014 - Top Band</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7249,22 +7252,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>13</c:v>
@@ -7284,11 +7287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1162040288"/>
-        <c:axId val="-1162041376"/>
+        <c:axId val="858195632"/>
+        <c:axId val="858198352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1162040288"/>
+        <c:axId val="858195632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7311,14 +7314,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1162041376"/>
+        <c:crossAx val="858198352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1162041376"/>
+        <c:axId val="858198352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7330,7 +7333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1162040288"/>
+        <c:crossAx val="858195632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7365,7 +7368,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="100" noThreeD="1" page="7" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="100" noThreeD="1" page="7" val="24"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7711,7 +7714,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -8409,7 +8412,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>41786</v>
+        <v>41813</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8442,7 +8445,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8461,7 +8464,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8492,59 +8495,59 @@
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Activities[Id],MATCH(1, ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>2</v>
-      </c>
-      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>3</v>
-      </c>
-      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>4</v>
-      </c>
-      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E19">
+      <c r="E19" t="e">
         <f t="array" ref="E19">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>5</v>
-      </c>
-      <c r="F19">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E20">
+      <c r="E20" t="e">
         <f t="array" ref="E20">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
@@ -8552,9 +8555,9 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E21">
+      <c r="E21" t="e">
         <f t="array" ref="E21">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E20)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
@@ -8562,23 +8565,23 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E22">
+      <c r="E22" t="e">
         <f t="array" ref="E22">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E21)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>8</v>
+        <v>#N/A</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E23">
+      <c r="E23" t="e">
         <f t="array" ref="E23">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E22)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>9</v>
+        <v>#N/A</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -8587,7 +8590,7 @@
       </c>
       <c r="D25" s="1">
         <f>StartDate+WindowOffset</f>
-        <v>41768</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -8595,7 +8598,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
@@ -8630,127 +8633,127 @@
       </c>
       <c r="E31" s="1">
         <f>StartDateWindow</f>
-        <v>41768</v>
+        <v>41792</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>41769</v>
+        <v>41793</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>41770</v>
+        <v>41794</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>41771</v>
+        <v>41795</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>41772</v>
+        <v>41796</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>41773</v>
+        <v>41797</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>41774</v>
+        <v>41798</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>41775</v>
+        <v>41799</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>41776</v>
+        <v>41800</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>41777</v>
+        <v>41801</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>41778</v>
+        <v>41802</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>41779</v>
+        <v>41803</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>41780</v>
+        <v>41804</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>41781</v>
+        <v>41805</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>41782</v>
+        <v>41806</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>41783</v>
+        <v>41807</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>41784</v>
+        <v>41808</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>41785</v>
+        <v>41809</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>41786</v>
+        <v>41810</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>41787</v>
+        <v>41811</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>41788</v>
+        <v>41812</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>41789</v>
+        <v>41813</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>41790</v>
+        <v>41814</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>41791</v>
+        <v>41815</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>41792</v>
+        <v>41816</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>41793</v>
+        <v>41817</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>41794</v>
+        <v>41818</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>41795</v>
+        <v>41819</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>41796</v>
+        <v>41820</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>41797</v>
+        <v>41821</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>41798</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -8760,17 +8763,17 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="e">
         <f t="shared" ref="C32:C40" ca="1" si="2">F15</f>
-        <v>1</v>
-      </c>
-      <c r="D32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C32,Activities[Id],0))</f>
-        <v>Project Start</v>
-      </c>
-      <c r="E32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="F32" t="e">
         <f ca="1">GridCalc</f>
@@ -8901,13 +8904,13 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C33,Activities[Id],0))</f>
-        <v>Client Meeeting 1</v>
+        <v>#N/A</v>
       </c>
       <c r="E33" t="e">
         <f ca="1">GridCalc</f>
@@ -8925,9 +8928,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="I33">
-        <f ca="1">GridCalc</f>
-        <v>10.3</v>
+      <c r="I33" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="J33" t="e">
         <f ca="1">GridCalc</f>
@@ -9042,13 +9045,13 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C34,Activities[Id],0))</f>
-        <v>Requirement Integration</v>
+        <v>#N/A</v>
       </c>
       <c r="E34" t="e">
         <f ca="1">GridCalc</f>
@@ -9094,21 +9097,21 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="P34">
-        <f ca="1">GridCalc</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="Q34">
-        <f ca="1">GridCalc</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="R34">
-        <f ca="1">GridCalc</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="S34">
-        <f ca="1">GridCalc</f>
-        <v>9.3000000000000007</v>
+      <c r="P34" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R34" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="T34" t="e">
         <f ca="1">GridCalc</f>
@@ -9183,13 +9186,13 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C35,Activities[Id],0))</f>
-        <v>Project Timeline Compilation</v>
+        <v>#N/A</v>
       </c>
       <c r="E35" t="e">
         <f ca="1">GridCalc</f>
@@ -9243,29 +9246,29 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="R35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="S35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="U35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="V35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="W35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
+      <c r="R35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="X35" t="e">
         <f ca="1">GridCalc</f>
@@ -9324,13 +9327,13 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C36,Activities[Id],0))</f>
-        <v>First Demo Session</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" t="e">
         <f ca="1">GridCalc</f>
@@ -9400,9 +9403,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="V36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
+      <c r="V36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="W36" t="e">
         <f ca="1">GridCalc</f>
@@ -9473,73 +9476,73 @@
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C37,Activities[Id],0))</f>
         <v>Requirement Re-do</v>
       </c>
-      <c r="E37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U37" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="E37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="F37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="G37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="I37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="K37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="L37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="M37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="N37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="O37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="P37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="Q37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="R37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="S37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="T37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="U37">
+        <f ca="1">GridCalc</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="V37">
         <f ca="1">GridCalc</f>
@@ -9577,25 +9580,25 @@
         <f ca="1">GridCalc</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="AE37">
-        <f ca="1">GridCalc</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AF37">
-        <f ca="1">GridCalc</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AG37">
-        <f ca="1">GridCalc</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AH37">
-        <f ca="1">GridCalc</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="AI37">
-        <f ca="1">GridCalc</f>
-        <v>6.3000000000000007</v>
+      <c r="AE37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI37" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -9614,45 +9617,45 @@
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C38,Activities[Id],0))</f>
         <v>System Prototype &amp; DB Design</v>
       </c>
-      <c r="E38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="E38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="F38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="G38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="I38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="J38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="K38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="L38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="M38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="N38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
       </c>
       <c r="O38" t="e">
         <f ca="1">GridCalc</f>
@@ -9690,53 +9693,53 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="X38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="Y38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="Z38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AA38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AB38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AC38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AD38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AE38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AF38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AG38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AH38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="AI38">
-        <f ca="1">GridCalc</f>
-        <v>5.3000000000000007</v>
+      <c r="X38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI38" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
@@ -9749,11 +9752,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C39,Activities[Id],0))</f>
-        <v>Progress Report 1</v>
+        <v>Meet Stacey 1</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">GridCalc</f>
@@ -9771,9 +9774,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="I39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="I39">
+        <f ca="1">GridCalc</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="J39" t="e">
         <f ca="1">GridCalc</f>
@@ -9839,9 +9842,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="Z39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
+      <c r="Z39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="AA39" t="e">
         <f ca="1">GridCalc</f>
@@ -9890,11 +9893,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C40,Activities[Id],0))</f>
-        <v>Meet Stacey 1</v>
+        <v>Client Meeeting 2</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">GridCalc</f>
@@ -9968,9 +9971,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="W40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="W40">
+        <f ca="1">GridCalc</f>
+        <v>3.3000000000000007</v>
       </c>
       <c r="X40" t="e">
         <f ca="1">GridCalc</f>
@@ -10008,9 +10011,9 @@
         <f ca="1">GridCalc</f>
         <v>#N/A</v>
       </c>
-      <c r="AG40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
+      <c r="AG40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="AH40" t="e">
         <f ca="1">GridCalc</f>
@@ -10024,137 +10027,137 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>41768</v>
+        <v>41792</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>41769</v>
+        <v>41793</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>41770</v>
+        <v>41794</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>41771</v>
+        <v>41795</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>41772</v>
+        <v>41796</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>41773</v>
+        <v>41797</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>41774</v>
+        <v>41798</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>41775</v>
+        <v>41799</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>41776</v>
+        <v>41800</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>41777</v>
+        <v>41801</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>41778</v>
+        <v>41802</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>41779</v>
+        <v>41803</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>41780</v>
+        <v>41804</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>41781</v>
+        <v>41805</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>41782</v>
+        <v>41806</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>41783</v>
+        <v>41807</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>41784</v>
+        <v>41808</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>41785</v>
+        <v>41809</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>41786</v>
+        <v>41810</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>41787</v>
+        <v>41811</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>41788</v>
+        <v>41812</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>41789</v>
+        <v>41813</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>41790</v>
+        <v>41814</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>41791</v>
+        <v>41815</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>41792</v>
+        <v>41816</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>41793</v>
+        <v>41817</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>41794</v>
+        <v>41818</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>41795</v>
+        <v>41819</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>41796</v>
+        <v>41820</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>41797</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C44">
+      <c r="C44" t="e">
         <f ca="1">C32</f>
-        <v>1</v>
-      </c>
-      <c r="D44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C44,Activities[Id],0)))</f>
-        <v>PROJECT START</v>
-      </c>
-      <c r="E44">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
         <f t="shared" ref="E44:AH44" ca="1" si="5">IF(ISERROR(F32),E32,NA())</f>
-        <v>11.3</v>
+        <v>#N/A</v>
       </c>
       <c r="F44" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -10274,13 +10277,13 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C45">
+      <c r="C45" t="e">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>2</v>
-      </c>
-      <c r="D45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C45,Activities[Id],0)))</f>
-        <v>CLIENT MEEETING 1</v>
+        <v>#N/A</v>
       </c>
       <c r="E45" t="e">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
@@ -10298,9 +10301,9 @@
         <f t="shared" ca="1" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>10.3</v>
+        <v>#N/A</v>
       </c>
       <c r="J45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10404,13 +10407,13 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C46">
+      <c r="C46" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="D46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C46,Activities[Id],0)))</f>
-        <v>REQUIREMENT INTEGRATION</v>
+        <v>#N/A</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
@@ -10468,9 +10471,9 @@
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="S46">
+      <c r="S46" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="T46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10534,13 +10537,13 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C47">
+      <c r="C47" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C47,Activities[Id],0)))</f>
-        <v>PROJECT TIMELINE COMPILATION</v>
+        <v>#N/A</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
@@ -10614,9 +10617,9 @@
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="W47">
+      <c r="W47" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="X47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -10664,13 +10667,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C48">
+      <c r="C48" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="D48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C48,Activities[Id],0)))</f>
-        <v>FIRST DEMO SESSION</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -10740,9 +10743,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="V48">
+      <c r="V48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="W48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -10902,9 +10905,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AD49" t="e">
+      <c r="AD49">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="AE49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -10968,9 +10971,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="N50" t="e">
+      <c r="N50">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="O50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -11056,11 +11059,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C51,Activities[Id],0)))</f>
-        <v>PROGRESS REPORT 1</v>
+        <v>MEET STACEY 1</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -11078,9 +11081,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="I51" t="e">
+      <c r="I51">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="J51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11146,9 +11149,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AA51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11186,11 +11189,11 @@
     <row r="52" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C52,Activities[Id],0)))</f>
-        <v>MEET STACEY 1</v>
+        <v>CLIENT MEEETING 2</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11264,9 +11267,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="W52" t="e">
+      <c r="W52">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="X52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11304,9 +11307,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="AG52">
+      <c r="AG52" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="AH52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11316,123 +11319,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>41768</v>
+        <v>41792</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>41769</v>
+        <v>41793</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>41770</v>
+        <v>41794</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>41771</v>
+        <v>41795</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>41772</v>
+        <v>41796</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>41773</v>
+        <v>41797</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>41774</v>
+        <v>41798</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>41775</v>
+        <v>41799</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>41776</v>
+        <v>41800</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>41777</v>
+        <v>41801</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>41778</v>
+        <v>41802</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>41779</v>
+        <v>41803</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>41780</v>
+        <v>41804</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>41781</v>
+        <v>41805</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>41782</v>
+        <v>41806</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>41783</v>
+        <v>41807</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>41784</v>
+        <v>41808</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>41785</v>
+        <v>41809</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>41786</v>
+        <v>41810</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>41787</v>
+        <v>41811</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>41788</v>
+        <v>41812</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>41789</v>
+        <v>41813</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>41790</v>
+        <v>41814</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>41791</v>
+        <v>41815</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>41792</v>
+        <v>41816</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>41793</v>
+        <v>41817</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>41794</v>
+        <v>41818</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>41795</v>
+        <v>41819</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>41796</v>
+        <v>41820</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>41797</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
@@ -11511,21 +11514,21 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="W56">
+      <c r="W56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z56">
         <f t="shared" ca="1" si="16"/>
         <v>5</v>
-      </c>
-      <c r="X56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
       </c>
       <c r="AA56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11563,7 +11566,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D58" s="3">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="E58">
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11657,29 +11660,29 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="AB58" t="e">
+      <c r="AB58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AC58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AD58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AE58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AF58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AG58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AH58" t="e">
         <f t="shared" si="17"/>
@@ -11689,7 +11692,7 @@
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D59" s="3" t="str">
         <f>TEXT(D58,"mmm yyyy") &amp; " - Top Band"</f>
-        <v>May 2014 - Top Band</v>
+        <v>Jun 2014 - Top Band</v>
       </c>
       <c r="E59">
         <f>E58+12.5</f>
@@ -11783,29 +11786,29 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AB59" t="e">
+      <c r="AB59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC59" t="e">
+        <v>13</v>
+      </c>
+      <c r="AC59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD59" t="e">
+        <v>13</v>
+      </c>
+      <c r="AD59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE59" t="e">
+        <v>13</v>
+      </c>
+      <c r="AE59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF59" t="e">
+        <v>13</v>
+      </c>
+      <c r="AF59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG59" t="e">
+        <v>13</v>
+      </c>
+      <c r="AG59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AH59" t="e">
         <f t="shared" si="18"/>
@@ -11818,7 +11821,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D61" s="3">
         <f>EOMONTH(D58,0)+1</f>
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="E61" t="e">
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -11912,29 +11915,29 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC61">
+        <v>#N/A</v>
+      </c>
+      <c r="AC61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AD61">
+        <v>#N/A</v>
+      </c>
+      <c r="AD61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AE61">
+        <v>#N/A</v>
+      </c>
+      <c r="AE61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF61">
+        <v>#N/A</v>
+      </c>
+      <c r="AF61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG61">
+        <v>#N/A</v>
+      </c>
+      <c r="AG61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AH61">
         <f t="shared" si="19"/>
@@ -11944,7 +11947,7 @@
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="str">
         <f>TEXT(D61,"mmm yyyy") &amp; " - Top Band"</f>
-        <v>Jun 2014 - Top Band</v>
+        <v>Jul 2014 - Top Band</v>
       </c>
       <c r="E62" t="e">
         <f>E61+12.5</f>
@@ -12038,29 +12041,29 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="AB62">
+      <c r="AB62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AC62">
+        <v>#N/A</v>
+      </c>
+      <c r="AC62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AD62">
+        <v>#N/A</v>
+      </c>
+      <c r="AD62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AE62">
+        <v>#N/A</v>
+      </c>
+      <c r="AE62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AF62">
+        <v>#N/A</v>
+      </c>
+      <c r="AF62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AG62">
+        <v>#N/A</v>
+      </c>
+      <c r="AG62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AH62">
         <f t="shared" si="20"/>
@@ -12073,11 +12076,11 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D65" s="3">
         <f>D58+1</f>
-        <v>41761</v>
-      </c>
-      <c r="E65" t="e">
+        <v>41792</v>
+      </c>
+      <c r="E65">
         <f>IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="F65" t="e">
         <f t="shared" ref="F65:AH66" si="21">IF(MEDIAN($D65,F$55)=F$55,0.5,NA())</f>
@@ -12199,7 +12202,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D66" s="3">
         <f>D61+1</f>
-        <v>41792</v>
+        <v>41822</v>
       </c>
       <c r="E66" t="e">
         <f>IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12297,9 +12300,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" t="e">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AD66" t="e">
         <f t="shared" si="21"/>
@@ -12449,123 +12452,123 @@
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.2">
@@ -12692,123 +12695,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.2">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>09</v>
+        <v>02</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>10</v>
+        <v>03</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>04</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>05</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>06</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>07</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>08</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>09</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>25</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>26</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>27</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>28</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>29</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>30</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>01</v>
       </c>
     </row>
   </sheetData>
